--- a/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.999720670292581</v>
+      </c>
+      <c r="D3">
         <v>1.000069836455231</v>
-      </c>
-      <c r="D3">
-        <v>0.999720670292581</v>
       </c>
       <c r="E3">
         <v>1.000069836455231</v>
       </c>
       <c r="F3">
+        <v>0.999720670292581</v>
+      </c>
+      <c r="G3">
         <v>1.000069836455231</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.000069836455231</v>
+      </c>
+      <c r="I3">
+        <v>0.9998463704535228</v>
+      </c>
+      <c r="J3">
         <v>1.00018621958964</v>
-      </c>
-      <c r="H3">
-        <v>0.9998463704535228</v>
-      </c>
-      <c r="I3">
-        <v>1.000069836455231</v>
-      </c>
-      <c r="J3">
-        <v>0.999720670292581</v>
       </c>
       <c r="K3">
         <v>1.000069836455231</v>
@@ -788,7 +680,7 @@
         <v>0.9999937949502394</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9994607561731895</v>
+      </c>
+      <c r="D4">
         <v>1.000134817007111</v>
-      </c>
-      <c r="D4">
-        <v>0.9994607561731895</v>
       </c>
       <c r="E4">
         <v>1.000134817007111</v>
       </c>
       <c r="F4">
+        <v>0.9994607561731895</v>
+      </c>
+      <c r="G4">
         <v>1.000134817007111</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>1.000134817007111</v>
+      </c>
+      <c r="I4">
+        <v>0.999703416915124</v>
+      </c>
+      <c r="J4">
         <v>1.000359495831011</v>
-      </c>
-      <c r="H4">
-        <v>0.999703416915124</v>
-      </c>
-      <c r="I4">
-        <v>1.000134817007111</v>
-      </c>
-      <c r="J4">
-        <v>0.9994607561731895</v>
       </c>
       <c r="K4">
         <v>1.000134817007111</v>
@@ -850,7 +742,7 @@
         <v>0.9999880199901097</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9989666085964711</v>
+      </c>
+      <c r="D5">
         <v>1.000258357610484</v>
-      </c>
-      <c r="D5">
-        <v>0.9989666085964711</v>
       </c>
       <c r="E5">
         <v>1.000258357610484</v>
       </c>
       <c r="F5">
+        <v>0.9989666085964711</v>
+      </c>
+      <c r="G5">
         <v>1.000258357610484</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>1.000258357610484</v>
+      </c>
+      <c r="I5">
+        <v>0.9994316340160744</v>
+      </c>
+      <c r="J5">
         <v>1.000688932550158</v>
-      </c>
-      <c r="H5">
-        <v>0.9994316340160744</v>
-      </c>
-      <c r="I5">
-        <v>1.000258357610484</v>
-      </c>
-      <c r="J5">
-        <v>0.9989666085964711</v>
       </c>
       <c r="K5">
         <v>1.000258357610484</v>
@@ -912,7 +804,7 @@
         <v>0.9999770413323592</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9984843496263277</v>
+      </c>
+      <c r="D6">
         <v>1.000378922958191</v>
-      </c>
-      <c r="D6">
-        <v>0.9984843496263277</v>
       </c>
       <c r="E6">
         <v>1.000378922958191</v>
       </c>
       <c r="F6">
+        <v>0.9984843496263277</v>
+      </c>
+      <c r="G6">
         <v>1.000378922958191</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1.000378922958191</v>
+      </c>
+      <c r="I6">
+        <v>0.999166390325081</v>
+      </c>
+      <c r="J6">
         <v>1.001010440393895</v>
-      </c>
-      <c r="H6">
-        <v>0.999166390325081</v>
-      </c>
-      <c r="I6">
-        <v>1.000378922958191</v>
-      </c>
-      <c r="J6">
-        <v>0.9984843496263277</v>
       </c>
       <c r="K6">
         <v>1.000378922958191</v>
@@ -974,7 +866,7 @@
         <v>0.9999663248699795</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999917104381885</v>
+      </c>
+      <c r="D7">
         <v>1.00000207576019</v>
-      </c>
-      <c r="D7">
-        <v>0.9999917104381881</v>
       </c>
       <c r="E7">
         <v>1.00000207576019</v>
       </c>
       <c r="F7">
+        <v>0.9999917104381885</v>
+      </c>
+      <c r="G7">
         <v>1.00000207576019</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>1.00000207576019</v>
+      </c>
+      <c r="I7">
+        <v>0.9999954427117663</v>
+      </c>
+      <c r="J7">
         <v>1.000005525638838</v>
-      </c>
-      <c r="H7">
-        <v>0.9999954427117664</v>
-      </c>
-      <c r="I7">
-        <v>1.00000207576019</v>
-      </c>
-      <c r="J7">
-        <v>0.9999917104381881</v>
       </c>
       <c r="K7">
         <v>1.00000207576019</v>
@@ -1012,31 +904,31 @@
         <v>1.00000207576019</v>
       </c>
       <c r="M7">
-        <v>0.999996893099189</v>
+        <v>0.9999968930991892</v>
       </c>
       <c r="N7">
-        <v>0.999996893099189</v>
+        <v>0.9999968930991892</v>
       </c>
       <c r="O7">
         <v>0.9999964096367148</v>
       </c>
       <c r="P7">
-        <v>0.9999986206528559</v>
+        <v>0.9999986206528561</v>
       </c>
       <c r="Q7">
-        <v>0.9999986206528559</v>
+        <v>0.9999986206528561</v>
       </c>
       <c r="R7">
-        <v>0.9999994844296894</v>
+        <v>0.9999994844296896</v>
       </c>
       <c r="S7">
-        <v>0.9999994844296894</v>
+        <v>0.9999994844296896</v>
       </c>
       <c r="T7">
         <v>0.9999998176782272</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999968821242886</v>
+      </c>
+      <c r="D8">
         <v>1.000000782842547</v>
-      </c>
-      <c r="D8">
-        <v>0.9999968821242884</v>
       </c>
       <c r="E8">
         <v>1.000000782842547</v>
       </c>
       <c r="F8">
+        <v>0.9999968821242886</v>
+      </c>
+      <c r="G8">
         <v>1.000000782842547</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>1.000000782842547</v>
+      </c>
+      <c r="I8">
+        <v>0.9999982870755649</v>
+      </c>
+      <c r="J8">
         <v>1.000002077815884</v>
-      </c>
-      <c r="H8">
-        <v>0.9999982870755649</v>
-      </c>
-      <c r="I8">
-        <v>1.000000782842547</v>
-      </c>
-      <c r="J8">
-        <v>0.9999968821242884</v>
       </c>
       <c r="K8">
         <v>1.000000782842547</v>
@@ -1074,10 +966,10 @@
         <v>1.000000782842547</v>
       </c>
       <c r="M8">
-        <v>0.9999988324834176</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="N8">
-        <v>0.9999988324834176</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="O8">
         <v>0.9999986506808001</v>
@@ -1098,7 +990,7 @@
         <v>0.9999999325905629</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000028450715356</v>
+      </c>
+      <c r="D9">
         <v>0.9999928906909888</v>
-      </c>
-      <c r="D9">
-        <v>1.000028450715356</v>
       </c>
       <c r="E9">
         <v>0.9999928906909888</v>
       </c>
       <c r="F9">
+        <v>1.000028450715356</v>
+      </c>
+      <c r="G9">
         <v>0.9999928906909888</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>0.9999928906909888</v>
+      </c>
+      <c r="I9">
+        <v>1.000015649807359</v>
+      </c>
+      <c r="J9">
         <v>0.9999810325528772</v>
-      </c>
-      <c r="H9">
-        <v>1.000015649807359</v>
-      </c>
-      <c r="I9">
-        <v>0.9999928906909888</v>
-      </c>
-      <c r="J9">
-        <v>1.000028450715356</v>
       </c>
       <c r="K9">
         <v>0.9999928906909888</v>
@@ -1160,7 +1052,7 @@
         <v>1.000000634191426</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000031604123303</v>
+      </c>
+      <c r="D10">
         <v>0.9999921032779158</v>
-      </c>
-      <c r="D10">
-        <v>1.000031604123303</v>
       </c>
       <c r="E10">
         <v>0.9999921032779158</v>
       </c>
       <c r="F10">
+        <v>1.000031604123303</v>
+      </c>
+      <c r="G10">
         <v>0.9999921032779158</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0.9999921032779158</v>
+      </c>
+      <c r="I10">
+        <v>1.000017384278147</v>
+      </c>
+      <c r="J10">
         <v>0.9999789305173188</v>
-      </c>
-      <c r="H10">
-        <v>1.000017384278147</v>
-      </c>
-      <c r="I10">
-        <v>0.9999921032779158</v>
-      </c>
-      <c r="J10">
-        <v>1.000031604123303</v>
       </c>
       <c r="K10">
         <v>0.9999921032779158</v>
@@ -1222,7 +1114,7 @@
         <v>1.000000704792086</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="D11">
         <v>0.9999681983447424</v>
-      </c>
-      <c r="D11">
-        <v>1.000127214607932</v>
       </c>
       <c r="E11">
         <v>0.9999681983447424</v>
       </c>
       <c r="F11">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="G11">
         <v>0.9999681983447424</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="I11">
+        <v>1.000069971874449</v>
+      </c>
+      <c r="J11">
         <v>0.9999151902425126</v>
-      </c>
-      <c r="H11">
-        <v>1.000069971874449</v>
-      </c>
-      <c r="I11">
-        <v>0.9999681983447424</v>
-      </c>
-      <c r="J11">
-        <v>1.000127214607932</v>
       </c>
       <c r="K11">
         <v>0.9999681983447424</v>
@@ -1284,7 +1176,7 @@
         <v>1.00000282862652</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="D12">
         <v>1.000120094216192</v>
-      </c>
-      <c r="D12">
-        <v>0.9995196357321918</v>
       </c>
       <c r="E12">
         <v>1.000120094216192</v>
       </c>
       <c r="F12">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="G12">
         <v>1.000120094216192</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="I12">
+        <v>0.9997357961980131</v>
+      </c>
+      <c r="J12">
         <v>1.000320241021014</v>
-      </c>
-      <c r="H12">
-        <v>0.9997357961980133</v>
-      </c>
-      <c r="I12">
-        <v>1.000120094216192</v>
-      </c>
-      <c r="J12">
-        <v>0.9995196357321918</v>
       </c>
       <c r="K12">
         <v>1.000120094216192</v>
@@ -1328,7 +1220,7 @@
         <v>0.9998198649741917</v>
       </c>
       <c r="O12">
-        <v>0.9997918420487989</v>
+        <v>0.9997918420487988</v>
       </c>
       <c r="P12">
         <v>0.9999199413881916</v>
@@ -1346,7 +1238,7 @@
         <v>0.9999893259332989</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="D13">
         <v>1.000032580109521</v>
-      </c>
-      <c r="D13">
-        <v>0.9998696851522243</v>
       </c>
       <c r="E13">
         <v>1.000032580109521</v>
       </c>
       <c r="F13">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="G13">
         <v>1.000032580109521</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="I13">
+        <v>0.9999283311509329</v>
+      </c>
+      <c r="J13">
         <v>1.000086877963037</v>
-      </c>
-      <c r="H13">
-        <v>0.999928331150933</v>
-      </c>
-      <c r="I13">
-        <v>1.000032580109521</v>
-      </c>
-      <c r="J13">
-        <v>0.9998696851522243</v>
       </c>
       <c r="K13">
         <v>1.000032580109521</v>
@@ -1408,7 +1300,7 @@
         <v>0.9999971057657929</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="D14">
         <v>0.988574515860675</v>
-      </c>
-      <c r="D14">
-        <v>1.045701945667218</v>
       </c>
       <c r="E14">
         <v>0.988574515860675</v>
       </c>
       <c r="F14">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="G14">
         <v>0.988574515860675</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="I14">
+        <v>1.025136069581616</v>
+      </c>
+      <c r="J14">
         <v>0.969532040033978</v>
-      </c>
-      <c r="H14">
-        <v>1.025136069581616</v>
-      </c>
-      <c r="I14">
-        <v>0.988574515860675</v>
-      </c>
-      <c r="J14">
-        <v>1.045701945667218</v>
       </c>
       <c r="K14">
         <v>0.988574515860675</v>
@@ -1470,7 +1362,7 @@
         <v>1.001015600477473</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="D15">
         <v>0.9969546944137678</v>
-      </c>
-      <c r="D15">
-        <v>1.012181208237609</v>
       </c>
       <c r="E15">
         <v>0.9969546944137678</v>
       </c>
       <c r="F15">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="G15">
         <v>0.9969546944137678</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="I15">
+        <v>1.006699670278214</v>
+      </c>
+      <c r="J15">
         <v>0.9918791945001935</v>
-      </c>
-      <c r="H15">
-        <v>1.006699670278214</v>
-      </c>
-      <c r="I15">
-        <v>0.9969546944137678</v>
-      </c>
-      <c r="J15">
-        <v>1.012181208237609</v>
       </c>
       <c r="K15">
         <v>0.9969546944137678</v>
@@ -1532,7 +1424,7 @@
         <v>1.000270692709553</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000291698404</v>
+        <v>0.9945583925282415</v>
       </c>
       <c r="D16">
-        <v>0.9999988471686717</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="E16">
-        <v>1.000000291698404</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="F16">
-        <v>1.000000291698404</v>
+        <v>0.9945583925282415</v>
       </c>
       <c r="G16">
-        <v>1.000000767756064</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="H16">
-        <v>0.9999993679289734</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="I16">
-        <v>1.000000291698404</v>
+        <v>0.9970071162599144</v>
       </c>
       <c r="J16">
-        <v>0.9999988471686717</v>
+        <v>1.003627743275687</v>
       </c>
       <c r="K16">
-        <v>1.000000291698404</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="L16">
-        <v>1.000000291698404</v>
+        <v>1.001360412919618</v>
       </c>
       <c r="M16">
-        <v>0.9999995694335377</v>
+        <v>0.9979594027239296</v>
       </c>
       <c r="N16">
-        <v>0.9999995694335377</v>
+        <v>0.9979594027239296</v>
       </c>
       <c r="O16">
-        <v>0.9999995022653496</v>
+        <v>0.9976419739025912</v>
       </c>
       <c r="P16">
-        <v>0.999999810188493</v>
+        <v>0.9990930727891589</v>
       </c>
       <c r="Q16">
-        <v>0.999999810188493</v>
+        <v>0.9990930727891589</v>
       </c>
       <c r="R16">
-        <v>0.9999999305659708</v>
+        <v>0.9996599078217736</v>
       </c>
       <c r="S16">
-        <v>0.9999999305659708</v>
+        <v>0.9996599078217736</v>
       </c>
       <c r="T16">
-        <v>0.99999997632482</v>
+        <v>0.9998790818037827</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000006110863086</v>
+        <v>0.9955695809655793</v>
       </c>
       <c r="D17">
-        <v>0.9999755728388374</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="E17">
-        <v>1.000006110863086</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="F17">
-        <v>1.000006110863086</v>
+        <v>0.9955695809655793</v>
       </c>
       <c r="G17">
-        <v>1.000016284515201</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="H17">
-        <v>0.9999865667540627</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="I17">
-        <v>1.000006110863086</v>
+        <v>0.9975632702539069</v>
       </c>
       <c r="J17">
-        <v>0.9999755728388374</v>
+        <v>1.002953616157175</v>
       </c>
       <c r="K17">
-        <v>1.000006110863086</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="L17">
-        <v>1.000006110863086</v>
+        <v>1.00110761318035</v>
       </c>
       <c r="M17">
-        <v>0.9999908418509615</v>
+        <v>0.9983385970729649</v>
       </c>
       <c r="N17">
-        <v>0.9999908418509615</v>
+        <v>0.9983385970729649</v>
       </c>
       <c r="O17">
-        <v>0.9999894168186619</v>
+        <v>0.9980801547999456</v>
       </c>
       <c r="P17">
-        <v>0.9999959315216697</v>
+        <v>0.9992616024420934</v>
       </c>
       <c r="Q17">
-        <v>0.9999959315216697</v>
+        <v>0.9992616024420934</v>
       </c>
       <c r="R17">
-        <v>0.9999984763570237</v>
+        <v>0.9997231051266577</v>
       </c>
       <c r="S17">
-        <v>0.9999984763570237</v>
+        <v>0.9997231051266577</v>
       </c>
       <c r="T17">
-        <v>0.9999994594495597</v>
+        <v>0.9999015511529521</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000021505837732</v>
+        <v>0.9976458525525063</v>
       </c>
       <c r="D18">
-        <v>0.9999139972541674</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="E18">
-        <v>1.000021505837732</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="F18">
-        <v>1.000021505837732</v>
+        <v>0.9976458525525063</v>
       </c>
       <c r="G18">
-        <v>1.000057334495987</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="H18">
-        <v>0.9999527026489272</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="I18">
-        <v>1.000021505837732</v>
+        <v>0.9987052192290433</v>
       </c>
       <c r="J18">
-        <v>0.9999139972541674</v>
+        <v>1.001569431637892</v>
       </c>
       <c r="K18">
-        <v>1.000021505837732</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="L18">
-        <v>1.000021505837732</v>
+        <v>1.000588541665887</v>
       </c>
       <c r="M18">
-        <v>0.99996775154595</v>
+        <v>0.9991171971091967</v>
       </c>
       <c r="N18">
-        <v>0.99996775154595</v>
+        <v>0.9991171971091967</v>
       </c>
       <c r="O18">
-        <v>0.9999627352469425</v>
+        <v>0.9989798711491455</v>
       </c>
       <c r="P18">
-        <v>0.9999856696432108</v>
+        <v>0.9996076452947601</v>
       </c>
       <c r="Q18">
-        <v>0.9999856696432108</v>
+        <v>0.9996076452947601</v>
       </c>
       <c r="R18">
-        <v>0.9999946286918412</v>
+        <v>0.9998528693875419</v>
       </c>
       <c r="S18">
-        <v>0.9999946286918412</v>
+        <v>0.9998528693875419</v>
       </c>
       <c r="T18">
-        <v>0.9999980919853796</v>
+        <v>0.9999476880695172</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="D19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="E19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="F19">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="G19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="H19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="I19">
+        <v>0.9985116077570855</v>
+      </c>
+      <c r="J19">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="K19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="L19">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="M19">
+        <v>0.9989851914883281</v>
+      </c>
+      <c r="N19">
+        <v>0.9989851914883281</v>
+      </c>
+      <c r="O19">
+        <v>0.9988273302445805</v>
+      </c>
+      <c r="P19">
+        <v>0.9995489776687959</v>
+      </c>
+      <c r="Q19">
+        <v>0.9995489776687959</v>
+      </c>
+      <c r="R19">
+        <v>0.9998308707590298</v>
+      </c>
+      <c r="S19">
+        <v>0.9998308707590298</v>
+      </c>
+      <c r="T19">
+        <v>0.999939867521097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="D20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="E20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="F20">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="G20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="H20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="I20">
+        <v>0.9999993679289734</v>
+      </c>
+      <c r="J20">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="K20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="L20">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="M20">
+        <v>0.9999995694335377</v>
+      </c>
+      <c r="N20">
+        <v>0.9999995694335377</v>
+      </c>
+      <c r="O20">
+        <v>0.9999995022653496</v>
+      </c>
+      <c r="P20">
+        <v>0.999999810188493</v>
+      </c>
+      <c r="Q20">
+        <v>0.999999810188493</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999305659708</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999305659708</v>
+      </c>
+      <c r="T20">
+        <v>0.99999997632482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="D21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="E21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="F21">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="G21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="H21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="I21">
+        <v>0.9999865667540628</v>
+      </c>
+      <c r="J21">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="K21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="L21">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="M21">
+        <v>0.9999908418509618</v>
+      </c>
+      <c r="N21">
+        <v>0.9999908418509618</v>
+      </c>
+      <c r="O21">
+        <v>0.9999894168186622</v>
+      </c>
+      <c r="P21">
+        <v>0.9999959315216698</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999959315216698</v>
+      </c>
+      <c r="R21">
+        <v>0.9999984763570238</v>
+      </c>
+      <c r="S21">
+        <v>0.9999984763570238</v>
+      </c>
+      <c r="T21">
+        <v>0.9999994594495599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="D22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="E22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="F22">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="G22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="H22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="I22">
+        <v>0.999952702648927</v>
+      </c>
+      <c r="J22">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="K22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="L22">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="M22">
+        <v>0.99996775154595</v>
+      </c>
+      <c r="N22">
+        <v>0.99996775154595</v>
+      </c>
+      <c r="O22">
+        <v>0.9999627352469423</v>
+      </c>
+      <c r="P22">
+        <v>0.9999856696432108</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999856696432108</v>
+      </c>
+      <c r="R22">
+        <v>0.9999946286918412</v>
+      </c>
+      <c r="S22">
+        <v>0.9999946286918412</v>
+      </c>
+      <c r="T22">
+        <v>0.9999980919853796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9997985203512424</v>
+      </c>
+      <c r="D23">
         <v>1.000050377160312</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.000050377160312</v>
+      </c>
+      <c r="F23">
         <v>0.9997985203512424</v>
       </c>
-      <c r="E19">
+      <c r="G23">
         <v>1.000050377160312</v>
       </c>
-      <c r="F19">
+      <c r="H23">
         <v>1.000050377160312</v>
       </c>
-      <c r="G19">
+      <c r="I23">
+        <v>0.9998891898300706</v>
+      </c>
+      <c r="J23">
         <v>1.000134320971912</v>
       </c>
-      <c r="H19">
-        <v>0.9998891898300706</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000050377160312</v>
       </c>
-      <c r="J19">
-        <v>0.9997985203512424</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000050377160312</v>
       </c>
-      <c r="L19">
-        <v>1.000050377160312</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9999244487557772</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9999244487557772</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9999126957805418</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9999664248906223</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999664248906223</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999874129580446</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999874129580446</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999955271056935</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.999720670292581</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="D3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="E3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="F3">
-        <v>0.999720670292581</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="G3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="H3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="I3">
-        <v>0.9998463704535228</v>
+        <v>0.9983786912247852</v>
       </c>
       <c r="J3">
-        <v>1.00018621958964</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="K3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="L3">
-        <v>1.000069836455231</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="M3">
-        <v>0.9998952533739061</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="N3">
-        <v>0.9998952533739061</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="O3">
-        <v>0.9998789590671117</v>
+        <v>0.9987226057132573</v>
       </c>
       <c r="P3">
-        <v>0.9999534477343478</v>
+        <v>0.9995086962103753</v>
       </c>
       <c r="Q3">
-        <v>0.9999534477343478</v>
+        <v>0.9995086962103753</v>
       </c>
       <c r="R3">
-        <v>0.9999825449145686</v>
+        <v>0.9998157628368163</v>
       </c>
       <c r="S3">
-        <v>0.9999825449145686</v>
+        <v>0.9998157628368163</v>
       </c>
       <c r="T3">
-        <v>0.9999937949502394</v>
+        <v>0.999934494791067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9994607561731895</v>
+        <v>0.997305604928253</v>
       </c>
       <c r="D4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="E4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="F4">
-        <v>0.9994607561731895</v>
+        <v>0.997305604928253</v>
       </c>
       <c r="G4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="H4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="I4">
-        <v>0.999703416915124</v>
+        <v>0.998518084167914</v>
       </c>
       <c r="J4">
-        <v>1.000359495831011</v>
+        <v>1.001796264370112</v>
       </c>
       <c r="K4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="L4">
-        <v>1.000134817007111</v>
+        <v>1.000673602091872</v>
       </c>
       <c r="M4">
-        <v>0.9997977865901504</v>
+        <v>0.9989896035100623</v>
       </c>
       <c r="N4">
-        <v>0.9997977865901504</v>
+        <v>0.9989896035100623</v>
       </c>
       <c r="O4">
-        <v>0.9997663300318083</v>
+        <v>0.9988324303960129</v>
       </c>
       <c r="P4">
-        <v>0.9999101300624705</v>
+        <v>0.9995509363706653</v>
       </c>
       <c r="Q4">
-        <v>0.9999101300624705</v>
+        <v>0.9995509363706653</v>
       </c>
       <c r="R4">
-        <v>0.9999663017986307</v>
+        <v>0.9998316028009668</v>
       </c>
       <c r="S4">
-        <v>0.9999663017986307</v>
+        <v>0.9998316028009668</v>
       </c>
       <c r="T4">
-        <v>0.9999880199901097</v>
+        <v>0.9999401266236488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9989666085964711</v>
+        <v>0.9966085994070083</v>
       </c>
       <c r="D5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="E5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="F5">
-        <v>0.9989666085964711</v>
+        <v>0.9966085994070083</v>
       </c>
       <c r="G5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="H5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="I5">
-        <v>0.9994316340160744</v>
+        <v>0.9981347319407008</v>
       </c>
       <c r="J5">
-        <v>1.000688932550158</v>
+        <v>1.002260937331535</v>
       </c>
       <c r="K5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="L5">
-        <v>1.000258357610484</v>
+        <v>1.000847856495956</v>
       </c>
       <c r="M5">
-        <v>0.9996124831034776</v>
+        <v>0.998728227951482</v>
       </c>
       <c r="N5">
-        <v>0.9996124831034776</v>
+        <v>0.998728227951482</v>
       </c>
       <c r="O5">
-        <v>0.9995522000743432</v>
+        <v>0.9985303959478883</v>
       </c>
       <c r="P5">
-        <v>0.9998277746058131</v>
+        <v>0.9994347707996399</v>
       </c>
       <c r="Q5">
-        <v>0.9998277746058131</v>
+        <v>0.9994347707996399</v>
       </c>
       <c r="R5">
-        <v>0.9999354203569808</v>
+        <v>0.9997880422237189</v>
       </c>
       <c r="S5">
-        <v>0.9999354203569808</v>
+        <v>0.9997880422237189</v>
       </c>
       <c r="T5">
-        <v>0.9999770413323592</v>
+        <v>0.9999246396945184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9984843496263277</v>
+        <v>0.9962393444318173</v>
       </c>
       <c r="D6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="E6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="F6">
-        <v>0.9984843496263277</v>
+        <v>0.9962393444318173</v>
       </c>
       <c r="G6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="H6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="I6">
-        <v>0.999166390325081</v>
+        <v>0.9979316378977263</v>
       </c>
       <c r="J6">
-        <v>1.001010440393895</v>
+        <v>1.002507116875</v>
       </c>
       <c r="K6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="L6">
-        <v>1.000378922958191</v>
+        <v>1.000940174318182</v>
       </c>
       <c r="M6">
-        <v>0.9994316362922593</v>
+        <v>0.9985897593749995</v>
       </c>
       <c r="N6">
-        <v>0.9994316362922593</v>
+        <v>0.9985897593749995</v>
       </c>
       <c r="O6">
-        <v>0.9993432209698665</v>
+        <v>0.9983703855492418</v>
       </c>
       <c r="P6">
-        <v>0.9997473985142364</v>
+        <v>0.9993732310227269</v>
       </c>
       <c r="Q6">
-        <v>0.9997473985142364</v>
+        <v>0.9993732310227269</v>
       </c>
       <c r="R6">
-        <v>0.999905279625225</v>
+        <v>0.9997649668465907</v>
       </c>
       <c r="S6">
-        <v>0.999905279625225</v>
+        <v>0.9997649668465907</v>
       </c>
       <c r="T6">
-        <v>0.9999663248699795</v>
+        <v>0.9999164370265148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999917104381885</v>
+        <v>0.9943968035628481</v>
       </c>
       <c r="D7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="E7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="F7">
-        <v>0.9999917104381885</v>
+        <v>0.9943968035628481</v>
       </c>
       <c r="G7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="H7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="I7">
-        <v>0.9999954427117663</v>
+        <v>0.9969182416482287</v>
       </c>
       <c r="J7">
-        <v>1.000005525638838</v>
+        <v>1.003735471174231</v>
       </c>
       <c r="K7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="L7">
-        <v>1.00000207576019</v>
+        <v>1.001400812134836</v>
       </c>
       <c r="M7">
-        <v>0.9999968930991892</v>
+        <v>0.997898807848842</v>
       </c>
       <c r="N7">
-        <v>0.9999968930991892</v>
+        <v>0.997898807848842</v>
       </c>
       <c r="O7">
-        <v>0.9999964096367148</v>
+        <v>0.9975719524486376</v>
       </c>
       <c r="P7">
-        <v>0.9999986206528561</v>
+        <v>0.9990661426108399</v>
       </c>
       <c r="Q7">
-        <v>0.9999986206528561</v>
+        <v>0.9990661426108399</v>
       </c>
       <c r="R7">
-        <v>0.9999994844296896</v>
+        <v>0.9996498099918389</v>
       </c>
       <c r="S7">
-        <v>0.9999994844296896</v>
+        <v>0.9996498099918389</v>
       </c>
       <c r="T7">
-        <v>0.9999998176782272</v>
+        <v>0.9998754921316358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999968821242886</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="D8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="E8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="F8">
-        <v>0.9999968821242886</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="G8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="H8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="I8">
-        <v>0.9999982870755649</v>
+        <v>0.996982563572071</v>
       </c>
       <c r="J8">
-        <v>1.000002077815884</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="K8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="L8">
-        <v>1.000000782842547</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="M8">
-        <v>0.9999988324834177</v>
+        <v>0.9979426637343749</v>
       </c>
       <c r="N8">
-        <v>0.9999988324834177</v>
+        <v>0.9979426637343749</v>
       </c>
       <c r="O8">
-        <v>0.9999986506808001</v>
+        <v>0.9976226303469403</v>
       </c>
       <c r="P8">
-        <v>0.9999994826031274</v>
+        <v>0.9990856341314581</v>
       </c>
       <c r="Q8">
-        <v>0.9999994826031274</v>
+        <v>0.9990856341314581</v>
       </c>
       <c r="R8">
-        <v>0.9999998076629822</v>
+        <v>0.9996571193299998</v>
       </c>
       <c r="S8">
-        <v>0.9999998076629822</v>
+        <v>0.9996571193299998</v>
       </c>
       <c r="T8">
-        <v>0.9999999325905629</v>
+        <v>0.999878091009014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000028450715356</v>
+        <v>0.9945444774587029</v>
       </c>
       <c r="D9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="E9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="F9">
-        <v>1.000028450715356</v>
+        <v>0.9945444774587029</v>
       </c>
       <c r="G9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="H9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="I9">
-        <v>1.000015649807359</v>
+        <v>0.9969994622887253</v>
       </c>
       <c r="J9">
-        <v>0.9999810325528772</v>
+        <v>1.003637021954054</v>
       </c>
       <c r="K9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="L9">
-        <v>0.9999928906909888</v>
+        <v>1.001363893646881</v>
       </c>
       <c r="M9">
-        <v>1.000010670703172</v>
+        <v>0.9979541855527921</v>
       </c>
       <c r="N9">
-        <v>1.000010670703172</v>
+        <v>0.9979541855527921</v>
       </c>
       <c r="O9">
-        <v>1.000012330404568</v>
+        <v>0.9976359444647699</v>
       </c>
       <c r="P9">
-        <v>1.000004744032444</v>
+        <v>0.9990907549174887</v>
       </c>
       <c r="Q9">
-        <v>1.000004744032444</v>
+        <v>0.9990907549174887</v>
       </c>
       <c r="R9">
-        <v>1.00000178069708</v>
+        <v>0.9996590395998368</v>
       </c>
       <c r="S9">
-        <v>1.00000178069708</v>
+        <v>0.9996590395998368</v>
       </c>
       <c r="T9">
-        <v>1.000000634191426</v>
+        <v>0.9998787737736877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000031604123303</v>
+        <v>0.9952493453430763</v>
       </c>
       <c r="D10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="E10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="F10">
-        <v>1.000031604123303</v>
+        <v>0.9952493453430763</v>
       </c>
       <c r="G10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="H10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="I10">
-        <v>1.000017384278147</v>
+        <v>0.9973871394807871</v>
       </c>
       <c r="J10">
-        <v>0.9999789305173188</v>
+        <v>1.00316711034885</v>
       </c>
       <c r="K10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="L10">
-        <v>0.9999921032779158</v>
+        <v>1.001187676502699</v>
       </c>
       <c r="M10">
-        <v>1.00001185370061</v>
+        <v>0.9982185109228876</v>
       </c>
       <c r="N10">
-        <v>1.00001185370061</v>
+        <v>0.9982185109228876</v>
       </c>
       <c r="O10">
-        <v>1.000013697226455</v>
+        <v>0.9979413871088542</v>
       </c>
       <c r="P10">
-        <v>1.000005270226378</v>
+        <v>0.9992082327828248</v>
       </c>
       <c r="Q10">
-        <v>1.000005270226378</v>
+        <v>0.9992082327828248</v>
       </c>
       <c r="R10">
-        <v>1.000001978489263</v>
+        <v>0.9997030937127933</v>
       </c>
       <c r="S10">
-        <v>1.000001978489263</v>
+        <v>0.9997030937127933</v>
       </c>
       <c r="T10">
-        <v>1.000000704792086</v>
+        <v>0.9998944374468017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000127214607932</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="D11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="E11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="F11">
-        <v>1.000127214607932</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="G11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="H11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="I11">
-        <v>1.000069971874449</v>
+        <v>0.9998213225223261</v>
       </c>
       <c r="J11">
-        <v>0.9999151902425126</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="K11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="L11">
-        <v>0.9999681983447424</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="M11">
-        <v>1.000047706476337</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="N11">
-        <v>1.000047706476337</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="O11">
-        <v>1.000055128275708</v>
+        <v>0.9998592241654237</v>
       </c>
       <c r="P11">
-        <v>1.000021203765806</v>
+        <v>0.9999458573983572</v>
       </c>
       <c r="Q11">
-        <v>1.000021203765806</v>
+        <v>0.9999458573983572</v>
       </c>
       <c r="R11">
-        <v>1.00000795241054</v>
+        <v>0.9999796986040496</v>
       </c>
       <c r="S11">
-        <v>1.00000795241054</v>
+        <v>0.9999796986040496</v>
       </c>
       <c r="T11">
-        <v>1.00000282862652</v>
+        <v>0.9999927829429746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9995196357321918</v>
+        <v>0.9998662430841586</v>
       </c>
       <c r="D12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="E12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="F12">
-        <v>0.9995196357321918</v>
+        <v>0.9998662430841586</v>
       </c>
       <c r="G12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="H12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="I12">
-        <v>0.9997357961980131</v>
+        <v>0.9999264356700152</v>
       </c>
       <c r="J12">
-        <v>1.000320241021014</v>
+        <v>1.000089170645523</v>
       </c>
       <c r="K12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="L12">
-        <v>1.000120094216192</v>
+        <v>1.000033442828344</v>
       </c>
       <c r="M12">
-        <v>0.9998198649741917</v>
+        <v>0.9999498429562514</v>
       </c>
       <c r="N12">
-        <v>0.9998198649741917</v>
+        <v>0.9999498429562514</v>
       </c>
       <c r="O12">
-        <v>0.9997918420487988</v>
+        <v>0.999942040527506</v>
       </c>
       <c r="P12">
-        <v>0.9999199413881916</v>
+        <v>0.9999777095802823</v>
       </c>
       <c r="Q12">
-        <v>0.9999199413881916</v>
+        <v>0.9999777095802823</v>
       </c>
       <c r="R12">
-        <v>0.9999699795951916</v>
+        <v>0.9999916428922977</v>
       </c>
       <c r="S12">
-        <v>0.9999699795951916</v>
+        <v>0.9999916428922977</v>
       </c>
       <c r="T12">
-        <v>0.9999893259332989</v>
+        <v>0.9999970296474548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998696851522243</v>
+        <v>0.9997894311859192</v>
       </c>
       <c r="D13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="E13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="F13">
-        <v>0.9998696851522243</v>
+        <v>0.9997894311859192</v>
       </c>
       <c r="G13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="H13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="I13">
-        <v>0.9999283311509329</v>
+        <v>0.9998841884474237</v>
       </c>
       <c r="J13">
-        <v>1.000086877963037</v>
+        <v>1.000140381093967</v>
       </c>
       <c r="K13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="L13">
-        <v>1.000032580109521</v>
+        <v>1.000052647205282</v>
       </c>
       <c r="M13">
-        <v>0.9999511326308728</v>
+        <v>0.9999210391956008</v>
       </c>
       <c r="N13">
-        <v>0.9999511326308728</v>
+        <v>0.9999210391956008</v>
       </c>
       <c r="O13">
-        <v>0.9999435321375595</v>
+        <v>0.9999087556128751</v>
       </c>
       <c r="P13">
-        <v>0.9999782817904223</v>
+        <v>0.9999649085321614</v>
       </c>
       <c r="Q13">
-        <v>0.9999782817904223</v>
+        <v>0.9999649085321614</v>
       </c>
       <c r="R13">
-        <v>0.9999918563701971</v>
+        <v>0.9999868432004416</v>
       </c>
       <c r="S13">
-        <v>0.9999918563701971</v>
+        <v>0.9999868432004416</v>
       </c>
       <c r="T13">
-        <v>0.9999971057657929</v>
+        <v>0.9999953237238596</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.045701945667218</v>
+        <v>0.9992259613531094</v>
       </c>
       <c r="D14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="E14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="F14">
-        <v>1.045701945667218</v>
+        <v>0.9992259613531094</v>
       </c>
       <c r="G14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="H14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="I14">
-        <v>1.025136069581616</v>
+        <v>0.9995742782069786</v>
       </c>
       <c r="J14">
-        <v>0.969532040033978</v>
+        <v>1.000516034995257</v>
       </c>
       <c r="K14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="L14">
-        <v>0.988574515860675</v>
+        <v>1.000193514552605</v>
       </c>
       <c r="M14">
-        <v>1.017138230763946</v>
+        <v>0.9997097379528572</v>
       </c>
       <c r="N14">
-        <v>1.017138230763946</v>
+        <v>0.9997097379528572</v>
       </c>
       <c r="O14">
-        <v>1.019804177036503</v>
+        <v>0.999664584704231</v>
       </c>
       <c r="P14">
-        <v>1.007616992462856</v>
+        <v>0.9998709968194399</v>
       </c>
       <c r="Q14">
-        <v>1.007616992462856</v>
+        <v>0.9998709968194399</v>
       </c>
       <c r="R14">
-        <v>1.002856373312311</v>
+        <v>0.9999516262527313</v>
       </c>
       <c r="S14">
-        <v>1.002856373312311</v>
+        <v>0.9999516262527313</v>
       </c>
       <c r="T14">
-        <v>1.001015600477473</v>
+        <v>0.9999828030355268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.012181208237609</v>
+        <v>0.999720670292581</v>
       </c>
       <c r="D15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="E15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="F15">
-        <v>1.012181208237609</v>
+        <v>0.999720670292581</v>
       </c>
       <c r="G15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="H15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="I15">
-        <v>1.006699670278214</v>
+        <v>0.9998463704535228</v>
       </c>
       <c r="J15">
-        <v>0.9918791945001935</v>
+        <v>1.00018621958964</v>
       </c>
       <c r="K15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="L15">
-        <v>0.9969546944137678</v>
+        <v>1.000069836455231</v>
       </c>
       <c r="M15">
-        <v>1.004567951325689</v>
+        <v>0.9998952533739061</v>
       </c>
       <c r="N15">
-        <v>1.004567951325689</v>
+        <v>0.9998952533739061</v>
       </c>
       <c r="O15">
-        <v>1.005278524309864</v>
+        <v>0.9998789590671117</v>
       </c>
       <c r="P15">
-        <v>1.002030199021715</v>
+        <v>0.9999534477343478</v>
       </c>
       <c r="Q15">
-        <v>1.002030199021715</v>
+        <v>0.9999534477343478</v>
       </c>
       <c r="R15">
-        <v>1.000761322869728</v>
+        <v>0.9999825449145686</v>
       </c>
       <c r="S15">
-        <v>1.000761322869728</v>
+        <v>0.9999825449145686</v>
       </c>
       <c r="T15">
-        <v>1.000270692709553</v>
+        <v>0.9999937949502394</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9945583925282415</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="D16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="E16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="F16">
-        <v>0.9945583925282415</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="G16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="H16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="I16">
-        <v>0.9970071162599144</v>
+        <v>0.999703416915124</v>
       </c>
       <c r="J16">
-        <v>1.003627743275687</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="K16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="L16">
-        <v>1.001360412919618</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="M16">
-        <v>0.9979594027239296</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="N16">
-        <v>0.9979594027239296</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="O16">
-        <v>0.9976419739025912</v>
+        <v>0.9997663300318083</v>
       </c>
       <c r="P16">
-        <v>0.9990930727891589</v>
+        <v>0.9999101300624705</v>
       </c>
       <c r="Q16">
-        <v>0.9990930727891589</v>
+        <v>0.9999101300624705</v>
       </c>
       <c r="R16">
-        <v>0.9996599078217736</v>
+        <v>0.9999663017986307</v>
       </c>
       <c r="S16">
-        <v>0.9996599078217736</v>
+        <v>0.9999663017986307</v>
       </c>
       <c r="T16">
-        <v>0.9998790818037827</v>
+        <v>0.9999880199901097</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9955695809655793</v>
+        <v>0.9989666085964711</v>
       </c>
       <c r="D17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="E17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="F17">
-        <v>0.9955695809655793</v>
+        <v>0.9989666085964711</v>
       </c>
       <c r="G17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="H17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="I17">
-        <v>0.9975632702539069</v>
+        <v>0.9994316340160744</v>
       </c>
       <c r="J17">
-        <v>1.002953616157175</v>
+        <v>1.000688932550158</v>
       </c>
       <c r="K17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="L17">
-        <v>1.00110761318035</v>
+        <v>1.000258357610484</v>
       </c>
       <c r="M17">
-        <v>0.9983385970729649</v>
+        <v>0.9996124831034776</v>
       </c>
       <c r="N17">
-        <v>0.9983385970729649</v>
+        <v>0.9996124831034776</v>
       </c>
       <c r="O17">
-        <v>0.9980801547999456</v>
+        <v>0.9995522000743432</v>
       </c>
       <c r="P17">
-        <v>0.9992616024420934</v>
+        <v>0.9998277746058131</v>
       </c>
       <c r="Q17">
-        <v>0.9992616024420934</v>
+        <v>0.9998277746058131</v>
       </c>
       <c r="R17">
-        <v>0.9997231051266577</v>
+        <v>0.9999354203569808</v>
       </c>
       <c r="S17">
-        <v>0.9997231051266577</v>
+        <v>0.9999354203569808</v>
       </c>
       <c r="T17">
-        <v>0.9999015511529521</v>
+        <v>0.9999770413323592</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9976458525525063</v>
+        <v>0.9984843496263277</v>
       </c>
       <c r="D18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="E18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="F18">
-        <v>0.9976458525525063</v>
+        <v>0.9984843496263277</v>
       </c>
       <c r="G18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="H18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="I18">
-        <v>0.9987052192290433</v>
+        <v>0.999166390325081</v>
       </c>
       <c r="J18">
-        <v>1.001569431637892</v>
+        <v>1.001010440393895</v>
       </c>
       <c r="K18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="L18">
-        <v>1.000588541665887</v>
+        <v>1.000378922958191</v>
       </c>
       <c r="M18">
-        <v>0.9991171971091967</v>
+        <v>0.9994316362922593</v>
       </c>
       <c r="N18">
-        <v>0.9991171971091967</v>
+        <v>0.9994316362922593</v>
       </c>
       <c r="O18">
-        <v>0.9989798711491455</v>
+        <v>0.9993432209698665</v>
       </c>
       <c r="P18">
-        <v>0.9996076452947601</v>
+        <v>0.9997473985142364</v>
       </c>
       <c r="Q18">
-        <v>0.9996076452947601</v>
+        <v>0.9997473985142364</v>
       </c>
       <c r="R18">
-        <v>0.9998528693875419</v>
+        <v>0.999905279625225</v>
       </c>
       <c r="S18">
-        <v>0.9998528693875419</v>
+        <v>0.999905279625225</v>
       </c>
       <c r="T18">
-        <v>0.9999476880695172</v>
+        <v>0.9999663248699795</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.997293832946925</v>
+        <v>0.9999917104381885</v>
       </c>
       <c r="D19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="E19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="F19">
-        <v>0.997293832946925</v>
+        <v>0.9999917104381885</v>
       </c>
       <c r="G19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="H19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="I19">
-        <v>0.9985116077570855</v>
+        <v>0.9999954427117663</v>
       </c>
       <c r="J19">
-        <v>1.001804114333378</v>
+        <v>1.000005525638838</v>
       </c>
       <c r="K19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="L19">
-        <v>1.000676550029731</v>
+        <v>1.00000207576019</v>
       </c>
       <c r="M19">
-        <v>0.9989851914883281</v>
+        <v>0.9999968930991892</v>
       </c>
       <c r="N19">
-        <v>0.9989851914883281</v>
+        <v>0.9999968930991892</v>
       </c>
       <c r="O19">
-        <v>0.9988273302445805</v>
+        <v>0.9999964096367148</v>
       </c>
       <c r="P19">
-        <v>0.9995489776687959</v>
+        <v>0.9999986206528561</v>
       </c>
       <c r="Q19">
-        <v>0.9995489776687959</v>
+        <v>0.9999986206528561</v>
       </c>
       <c r="R19">
-        <v>0.9998308707590298</v>
+        <v>0.9999994844296896</v>
       </c>
       <c r="S19">
-        <v>0.9998308707590298</v>
+        <v>0.9999994844296896</v>
       </c>
       <c r="T19">
-        <v>0.999939867521097</v>
+        <v>0.9999998176782272</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999988471686717</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="D20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="E20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="F20">
-        <v>0.9999988471686717</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="G20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="H20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="I20">
-        <v>0.9999993679289734</v>
+        <v>0.9999982870755649</v>
       </c>
       <c r="J20">
-        <v>1.000000767756064</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="K20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="L20">
-        <v>1.000000291698404</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="M20">
-        <v>0.9999995694335377</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="N20">
-        <v>0.9999995694335377</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="O20">
-        <v>0.9999995022653496</v>
+        <v>0.9999986506808001</v>
       </c>
       <c r="P20">
-        <v>0.999999810188493</v>
+        <v>0.9999994826031274</v>
       </c>
       <c r="Q20">
-        <v>0.999999810188493</v>
+        <v>0.9999994826031274</v>
       </c>
       <c r="R20">
-        <v>0.9999999305659708</v>
+        <v>0.9999998076629822</v>
       </c>
       <c r="S20">
-        <v>0.9999999305659708</v>
+        <v>0.9999998076629822</v>
       </c>
       <c r="T20">
-        <v>0.99999997632482</v>
+        <v>0.9999999325905629</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999755728388378</v>
+        <v>1.000028450715356</v>
       </c>
       <c r="D21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="E21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="F21">
-        <v>0.9999755728388378</v>
+        <v>1.000028450715356</v>
       </c>
       <c r="G21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="H21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="I21">
-        <v>0.9999865667540628</v>
+        <v>1.000015649807359</v>
       </c>
       <c r="J21">
-        <v>1.000016284515201</v>
+        <v>0.9999810325528772</v>
       </c>
       <c r="K21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="L21">
-        <v>1.000006110863086</v>
+        <v>0.9999928906909888</v>
       </c>
       <c r="M21">
-        <v>0.9999908418509618</v>
+        <v>1.000010670703172</v>
       </c>
       <c r="N21">
-        <v>0.9999908418509618</v>
+        <v>1.000010670703172</v>
       </c>
       <c r="O21">
-        <v>0.9999894168186622</v>
+        <v>1.000012330404568</v>
       </c>
       <c r="P21">
-        <v>0.9999959315216698</v>
+        <v>1.000004744032444</v>
       </c>
       <c r="Q21">
-        <v>0.9999959315216698</v>
+        <v>1.000004744032444</v>
       </c>
       <c r="R21">
-        <v>0.9999984763570238</v>
+        <v>1.00000178069708</v>
       </c>
       <c r="S21">
-        <v>0.9999984763570238</v>
+        <v>1.00000178069708</v>
       </c>
       <c r="T21">
-        <v>0.9999994594495599</v>
+        <v>1.000000634191426</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999139972541676</v>
+        <v>1.000031604123303</v>
       </c>
       <c r="D22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="E22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="F22">
-        <v>0.9999139972541676</v>
+        <v>1.000031604123303</v>
       </c>
       <c r="G22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="H22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="I22">
-        <v>0.999952702648927</v>
+        <v>1.000017384278147</v>
       </c>
       <c r="J22">
-        <v>1.000057334495987</v>
+        <v>0.9999789305173188</v>
       </c>
       <c r="K22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="L22">
-        <v>1.000021505837732</v>
+        <v>0.9999921032779158</v>
       </c>
       <c r="M22">
-        <v>0.99996775154595</v>
+        <v>1.00001185370061</v>
       </c>
       <c r="N22">
-        <v>0.99996775154595</v>
+        <v>1.00001185370061</v>
       </c>
       <c r="O22">
-        <v>0.9999627352469423</v>
+        <v>1.000013697226455</v>
       </c>
       <c r="P22">
-        <v>0.9999856696432108</v>
+        <v>1.000005270226378</v>
       </c>
       <c r="Q22">
-        <v>0.9999856696432108</v>
+        <v>1.000005270226378</v>
       </c>
       <c r="R22">
-        <v>0.9999946286918412</v>
+        <v>1.000001978489263</v>
       </c>
       <c r="S22">
-        <v>0.9999946286918412</v>
+        <v>1.000001978489263</v>
       </c>
       <c r="T22">
-        <v>0.9999980919853796</v>
+        <v>1.000000704792086</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="D23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="E23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="F23">
+        <v>1.000127214607932</v>
+      </c>
+      <c r="G23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="H23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="I23">
+        <v>1.000069971874449</v>
+      </c>
+      <c r="J23">
+        <v>0.9999151902425126</v>
+      </c>
+      <c r="K23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="L23">
+        <v>0.9999681983447424</v>
+      </c>
+      <c r="M23">
+        <v>1.000047706476337</v>
+      </c>
+      <c r="N23">
+        <v>1.000047706476337</v>
+      </c>
+      <c r="O23">
+        <v>1.000055128275708</v>
+      </c>
+      <c r="P23">
+        <v>1.000021203765806</v>
+      </c>
+      <c r="Q23">
+        <v>1.000021203765806</v>
+      </c>
+      <c r="R23">
+        <v>1.00000795241054</v>
+      </c>
+      <c r="S23">
+        <v>1.00000795241054</v>
+      </c>
+      <c r="T23">
+        <v>1.00000282862652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="D24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="E24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="F24">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="G24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="H24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="I24">
+        <v>0.9997357961980131</v>
+      </c>
+      <c r="J24">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="K24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="L24">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="M24">
+        <v>0.9998198649741917</v>
+      </c>
+      <c r="N24">
+        <v>0.9998198649741917</v>
+      </c>
+      <c r="O24">
+        <v>0.9997918420487988</v>
+      </c>
+      <c r="P24">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="R24">
+        <v>0.9999699795951916</v>
+      </c>
+      <c r="S24">
+        <v>0.9999699795951916</v>
+      </c>
+      <c r="T24">
+        <v>0.9999893259332989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="D25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="E25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="F25">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="G25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="H25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="I25">
+        <v>0.9999283311509329</v>
+      </c>
+      <c r="J25">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="K25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="L25">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="M25">
+        <v>0.9999511326308728</v>
+      </c>
+      <c r="N25">
+        <v>0.9999511326308728</v>
+      </c>
+      <c r="O25">
+        <v>0.9999435321375595</v>
+      </c>
+      <c r="P25">
+        <v>0.9999782817904223</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999782817904223</v>
+      </c>
+      <c r="R25">
+        <v>0.9999918563701971</v>
+      </c>
+      <c r="S25">
+        <v>0.9999918563701971</v>
+      </c>
+      <c r="T25">
+        <v>0.9999971057657929</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="D26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="E26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="F26">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="G26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="H26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="I26">
+        <v>1.025136069581616</v>
+      </c>
+      <c r="J26">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="K26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="L26">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="M26">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="N26">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="O26">
+        <v>1.019804177036503</v>
+      </c>
+      <c r="P26">
+        <v>1.007616992462856</v>
+      </c>
+      <c r="Q26">
+        <v>1.007616992462856</v>
+      </c>
+      <c r="R26">
+        <v>1.002856373312311</v>
+      </c>
+      <c r="S26">
+        <v>1.002856373312311</v>
+      </c>
+      <c r="T26">
+        <v>1.001015600477473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="D27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="E27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="F27">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="G27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="H27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="I27">
+        <v>1.006699670278214</v>
+      </c>
+      <c r="J27">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="K27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="L27">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="M27">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="N27">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="O27">
+        <v>1.005278524309864</v>
+      </c>
+      <c r="P27">
+        <v>1.002030199021715</v>
+      </c>
+      <c r="Q27">
+        <v>1.002030199021715</v>
+      </c>
+      <c r="R27">
+        <v>1.000761322869728</v>
+      </c>
+      <c r="S27">
+        <v>1.000761322869728</v>
+      </c>
+      <c r="T27">
+        <v>1.000270692709553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9945583925282415</v>
+      </c>
+      <c r="D28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="E28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="F28">
+        <v>0.9945583925282415</v>
+      </c>
+      <c r="G28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="H28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="I28">
+        <v>0.9970071162599144</v>
+      </c>
+      <c r="J28">
+        <v>1.003627743275687</v>
+      </c>
+      <c r="K28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="L28">
+        <v>1.001360412919618</v>
+      </c>
+      <c r="M28">
+        <v>0.9979594027239296</v>
+      </c>
+      <c r="N28">
+        <v>0.9979594027239296</v>
+      </c>
+      <c r="O28">
+        <v>0.9976419739025912</v>
+      </c>
+      <c r="P28">
+        <v>0.9990930727891589</v>
+      </c>
+      <c r="Q28">
+        <v>0.9990930727891589</v>
+      </c>
+      <c r="R28">
+        <v>0.9996599078217736</v>
+      </c>
+      <c r="S28">
+        <v>0.9996599078217736</v>
+      </c>
+      <c r="T28">
+        <v>0.9998790818037827</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9955695809655793</v>
+      </c>
+      <c r="D29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="E29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="F29">
+        <v>0.9955695809655793</v>
+      </c>
+      <c r="G29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="H29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="I29">
+        <v>0.9975632702539069</v>
+      </c>
+      <c r="J29">
+        <v>1.002953616157175</v>
+      </c>
+      <c r="K29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="L29">
+        <v>1.00110761318035</v>
+      </c>
+      <c r="M29">
+        <v>0.9983385970729649</v>
+      </c>
+      <c r="N29">
+        <v>0.9983385970729649</v>
+      </c>
+      <c r="O29">
+        <v>0.9980801547999456</v>
+      </c>
+      <c r="P29">
+        <v>0.9992616024420934</v>
+      </c>
+      <c r="Q29">
+        <v>0.9992616024420934</v>
+      </c>
+      <c r="R29">
+        <v>0.9997231051266577</v>
+      </c>
+      <c r="S29">
+        <v>0.9997231051266577</v>
+      </c>
+      <c r="T29">
+        <v>0.9999015511529521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9976458525525063</v>
+      </c>
+      <c r="D30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="E30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="F30">
+        <v>0.9976458525525063</v>
+      </c>
+      <c r="G30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="H30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="I30">
+        <v>0.9987052192290433</v>
+      </c>
+      <c r="J30">
+        <v>1.001569431637892</v>
+      </c>
+      <c r="K30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="L30">
+        <v>1.000588541665887</v>
+      </c>
+      <c r="M30">
+        <v>0.9991171971091967</v>
+      </c>
+      <c r="N30">
+        <v>0.9991171971091967</v>
+      </c>
+      <c r="O30">
+        <v>0.9989798711491455</v>
+      </c>
+      <c r="P30">
+        <v>0.9996076452947601</v>
+      </c>
+      <c r="Q30">
+        <v>0.9996076452947601</v>
+      </c>
+      <c r="R30">
+        <v>0.9998528693875419</v>
+      </c>
+      <c r="S30">
+        <v>0.9998528693875419</v>
+      </c>
+      <c r="T30">
+        <v>0.9999476880695172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="D31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="E31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="F31">
+        <v>0.997293832946925</v>
+      </c>
+      <c r="G31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="H31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="I31">
+        <v>0.9985116077570855</v>
+      </c>
+      <c r="J31">
+        <v>1.001804114333378</v>
+      </c>
+      <c r="K31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="L31">
+        <v>1.000676550029731</v>
+      </c>
+      <c r="M31">
+        <v>0.9989851914883281</v>
+      </c>
+      <c r="N31">
+        <v>0.9989851914883281</v>
+      </c>
+      <c r="O31">
+        <v>0.9988273302445805</v>
+      </c>
+      <c r="P31">
+        <v>0.9995489776687959</v>
+      </c>
+      <c r="Q31">
+        <v>0.9995489776687959</v>
+      </c>
+      <c r="R31">
+        <v>0.9998308707590298</v>
+      </c>
+      <c r="S31">
+        <v>0.9998308707590298</v>
+      </c>
+      <c r="T31">
+        <v>0.999939867521097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9945834764383562</v>
+      </c>
+      <c r="D32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="E32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="F32">
+        <v>0.9945834764383562</v>
+      </c>
+      <c r="G32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="H32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="I32">
+        <v>0.9970209117808218</v>
+      </c>
+      <c r="J32">
+        <v>1.003611022465753</v>
+      </c>
+      <c r="K32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="L32">
+        <v>1.001354144520548</v>
+      </c>
+      <c r="M32">
+        <v>0.997968810479452</v>
+      </c>
+      <c r="N32">
+        <v>0.997968810479452</v>
+      </c>
+      <c r="O32">
+        <v>0.9976528442465753</v>
+      </c>
+      <c r="P32">
+        <v>0.9990972551598173</v>
+      </c>
+      <c r="Q32">
+        <v>0.9990972551598173</v>
+      </c>
+      <c r="R32">
+        <v>0.9996614774999999</v>
+      </c>
+      <c r="S32">
+        <v>0.9996614774999999</v>
+      </c>
+      <c r="T32">
+        <v>0.9998796407077624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="D33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="E33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="F33">
+        <v>1.023525342105263</v>
+      </c>
+      <c r="G33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="H33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="I33">
+        <v>1.012938931578947</v>
+      </c>
+      <c r="J33">
+        <v>0.984316445263158</v>
+      </c>
+      <c r="K33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="L33">
+        <v>0.9941186657894736</v>
+      </c>
+      <c r="M33">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="N33">
+        <v>1.008822003947368</v>
+      </c>
+      <c r="O33">
+        <v>1.010194313157895</v>
+      </c>
+      <c r="P33">
+        <v>1.00392089122807</v>
+      </c>
+      <c r="Q33">
+        <v>1.00392089122807</v>
+      </c>
+      <c r="R33">
+        <v>1.001470334868421</v>
+      </c>
+      <c r="S33">
+        <v>1.001470334868421</v>
+      </c>
+      <c r="T33">
+        <v>1.000522786052631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="D34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="F34">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="G34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="H34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="I34">
+        <v>0.9973873331578945</v>
+      </c>
+      <c r="J34">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="K34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="L34">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="M34">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="N34">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="O34">
+        <v>0.9979415398245611</v>
+      </c>
+      <c r="P34">
+        <v>0.9992082917543857</v>
+      </c>
+      <c r="Q34">
+        <v>0.9992082917543857</v>
+      </c>
+      <c r="R34">
+        <v>0.9997031160526313</v>
+      </c>
+      <c r="S34">
+        <v>0.9997031160526313</v>
+      </c>
+      <c r="T34">
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9901958024679519</v>
+      </c>
+      <c r="D35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="E35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="F35">
+        <v>0.9901958024679519</v>
+      </c>
+      <c r="G35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="H35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="I35">
+        <v>0.9946076941840079</v>
+      </c>
+      <c r="J35">
+        <v>1.006536151903368</v>
+      </c>
+      <c r="K35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="L35">
+        <v>1.002451052123913</v>
+      </c>
+      <c r="M35">
+        <v>0.9963234272959325</v>
+      </c>
+      <c r="N35">
+        <v>0.9963234272959325</v>
+      </c>
+      <c r="O35">
+        <v>0.9957515162586242</v>
+      </c>
+      <c r="P35">
+        <v>0.9983659689052594</v>
+      </c>
+      <c r="Q35">
+        <v>0.9983659689052594</v>
+      </c>
+      <c r="R35">
+        <v>0.9993872397099228</v>
+      </c>
+      <c r="S35">
+        <v>0.9993872397099228</v>
+      </c>
+      <c r="T35">
+        <v>0.9997821341545112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="D36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="E36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="F36">
+        <v>0.9999988471686717</v>
+      </c>
+      <c r="G36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="H36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="I36">
+        <v>0.9999993679289734</v>
+      </c>
+      <c r="J36">
+        <v>1.000000767756064</v>
+      </c>
+      <c r="K36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="L36">
+        <v>1.000000291698404</v>
+      </c>
+      <c r="M36">
+        <v>0.9999995694335377</v>
+      </c>
+      <c r="N36">
+        <v>0.9999995694335377</v>
+      </c>
+      <c r="O36">
+        <v>0.9999995022653496</v>
+      </c>
+      <c r="P36">
+        <v>0.999999810188493</v>
+      </c>
+      <c r="Q36">
+        <v>0.999999810188493</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999305659708</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999305659708</v>
+      </c>
+      <c r="T36">
+        <v>0.99999997632482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="D37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="E37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="F37">
+        <v>0.9999755728388378</v>
+      </c>
+      <c r="G37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="H37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="I37">
+        <v>0.9999865667540628</v>
+      </c>
+      <c r="J37">
+        <v>1.000016284515201</v>
+      </c>
+      <c r="K37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="L37">
+        <v>1.000006110863086</v>
+      </c>
+      <c r="M37">
+        <v>0.9999908418509618</v>
+      </c>
+      <c r="N37">
+        <v>0.9999908418509618</v>
+      </c>
+      <c r="O37">
+        <v>0.9999894168186622</v>
+      </c>
+      <c r="P37">
+        <v>0.9999959315216698</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999959315216698</v>
+      </c>
+      <c r="R37">
+        <v>0.9999984763570238</v>
+      </c>
+      <c r="S37">
+        <v>0.9999984763570238</v>
+      </c>
+      <c r="T37">
+        <v>0.9999994594495599</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="D38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="E38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="F38">
+        <v>0.9999139972541676</v>
+      </c>
+      <c r="G38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="H38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="I38">
+        <v>0.999952702648927</v>
+      </c>
+      <c r="J38">
+        <v>1.000057334495987</v>
+      </c>
+      <c r="K38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="L38">
+        <v>1.000021505837732</v>
+      </c>
+      <c r="M38">
+        <v>0.99996775154595</v>
+      </c>
+      <c r="N38">
+        <v>0.99996775154595</v>
+      </c>
+      <c r="O38">
+        <v>0.9999627352469423</v>
+      </c>
+      <c r="P38">
+        <v>0.9999856696432108</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999856696432108</v>
+      </c>
+      <c r="R38">
+        <v>0.9999946286918412</v>
+      </c>
+      <c r="S38">
+        <v>0.9999946286918412</v>
+      </c>
+      <c r="T38">
+        <v>0.9999980919853796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9997985203512424</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000050377160312</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000050377160312</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9997985203512424</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000050377160312</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000050377160312</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9998891898300706</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000134320971912</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000050377160312</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000050377160312</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999244487557772</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999244487557772</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999126957805418</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999664248906223</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999664248906223</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999874129580446</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999874129580446</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999955271056935</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9984142526515971</v>
+      </c>
+      <c r="D40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="E40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="F40">
+        <v>0.9984142526515971</v>
+      </c>
+      <c r="G40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="H40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="I40">
+        <v>0.9991278411719423</v>
+      </c>
+      <c r="J40">
+        <v>1.001057162099064</v>
+      </c>
+      <c r="K40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="L40">
+        <v>1.000396441248276</v>
+      </c>
+      <c r="M40">
+        <v>0.9994053469499368</v>
+      </c>
+      <c r="N40">
+        <v>0.9994053469499368</v>
+      </c>
+      <c r="O40">
+        <v>0.9993128450239386</v>
+      </c>
+      <c r="P40">
+        <v>0.9997357117160499</v>
+      </c>
+      <c r="Q40">
+        <v>0.9997357117160499</v>
+      </c>
+      <c r="R40">
+        <v>0.9999008940991065</v>
+      </c>
+      <c r="S40">
+        <v>0.9999008940991065</v>
+      </c>
+      <c r="T40">
+        <v>0.9999647632779055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9922615463352987</v>
+      </c>
+      <c r="D41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="E41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="F41">
+        <v>0.9922615463352987</v>
+      </c>
+      <c r="G41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="H41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="I41">
+        <v>0.9957438522039068</v>
+      </c>
+      <c r="J41">
+        <v>1.005158966999478</v>
+      </c>
+      <c r="K41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="L41">
+        <v>1.001934617085824</v>
+      </c>
+      <c r="M41">
+        <v>0.9970980817105615</v>
+      </c>
+      <c r="N41">
+        <v>0.9970980817105615</v>
+      </c>
+      <c r="O41">
+        <v>0.99664667187501</v>
+      </c>
+      <c r="P41">
+        <v>0.9987102601689823</v>
+      </c>
+      <c r="Q41">
+        <v>0.9987102601689823</v>
+      </c>
+      <c r="R41">
+        <v>0.9995163493981929</v>
+      </c>
+      <c r="S41">
+        <v>0.9995163493981929</v>
+      </c>
+      <c r="T41">
+        <v>0.9998280361326927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9892060327232383</v>
+      </c>
+      <c r="D42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="E42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="F42">
+        <v>0.9892060327232383</v>
+      </c>
+      <c r="G42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="H42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="I42">
+        <v>0.99406331985958</v>
+      </c>
+      <c r="J42">
+        <v>1.00719597724757</v>
+      </c>
+      <c r="K42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="L42">
+        <v>1.002698497589109</v>
+      </c>
+      <c r="M42">
+        <v>0.9959522651561734</v>
+      </c>
+      <c r="N42">
+        <v>0.9959522651561734</v>
+      </c>
+      <c r="O42">
+        <v>0.9953226167239756</v>
+      </c>
+      <c r="P42">
+        <v>0.9982010093004852</v>
+      </c>
+      <c r="Q42">
+        <v>0.9982010093004852</v>
+      </c>
+      <c r="R42">
+        <v>0.999325381372641</v>
+      </c>
+      <c r="S42">
+        <v>0.999325381372641</v>
+      </c>
+      <c r="T42">
+        <v>0.999760137099619</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000069836455231</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="D3">
-        <v>0.999720670292581</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="E3">
-        <v>1.000069836455231</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="F3">
-        <v>1.000069836455231</v>
+        <v>0.9999968821242886</v>
       </c>
       <c r="G3">
-        <v>1.00018621958964</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="H3">
-        <v>0.9998463704535228</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="I3">
-        <v>1.000069836455231</v>
+        <v>0.9999982870755649</v>
       </c>
       <c r="J3">
-        <v>0.999720670292581</v>
+        <v>1.000002077815884</v>
       </c>
       <c r="K3">
-        <v>1.000069836455231</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="L3">
-        <v>1.000069836455231</v>
+        <v>1.000000782842547</v>
       </c>
       <c r="M3">
-        <v>0.9998952533739061</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="N3">
-        <v>0.9998952533739061</v>
+        <v>0.9999988324834177</v>
       </c>
       <c r="O3">
-        <v>0.9998789590671117</v>
+        <v>0.9999986506808001</v>
       </c>
       <c r="P3">
-        <v>0.9999534477343478</v>
+        <v>0.9999994826031274</v>
       </c>
       <c r="Q3">
-        <v>0.9999534477343478</v>
+        <v>0.9999994826031274</v>
       </c>
       <c r="R3">
-        <v>0.9999825449145686</v>
+        <v>0.9999998076629822</v>
       </c>
       <c r="S3">
-        <v>0.9999825449145686</v>
+        <v>0.9999998076629822</v>
       </c>
       <c r="T3">
-        <v>0.9999937949502394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.9999999325905629</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000134817007111</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="D4">
-        <v>0.9994607561731895</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="E4">
-        <v>1.000134817007111</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="F4">
-        <v>1.000134817007111</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="G4">
-        <v>1.000359495831011</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="H4">
-        <v>0.999703416915124</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="I4">
-        <v>1.000134817007111</v>
+        <v>0.9991278411719423</v>
       </c>
       <c r="J4">
-        <v>0.9994607561731895</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="K4">
-        <v>1.000134817007111</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="L4">
-        <v>1.000134817007111</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="M4">
-        <v>0.9997977865901504</v>
+        <v>0.9994053469499368</v>
       </c>
       <c r="N4">
-        <v>0.9997977865901504</v>
+        <v>0.9994053469499368</v>
       </c>
       <c r="O4">
-        <v>0.9997663300318083</v>
+        <v>0.9993128450239386</v>
       </c>
       <c r="P4">
-        <v>0.9999101300624705</v>
+        <v>0.9997357117160499</v>
       </c>
       <c r="Q4">
-        <v>0.9999101300624705</v>
+        <v>0.9997357117160499</v>
       </c>
       <c r="R4">
-        <v>0.9999663017986307</v>
+        <v>0.9999008940991065</v>
       </c>
       <c r="S4">
-        <v>0.9999663017986307</v>
+        <v>0.9999008940991065</v>
       </c>
       <c r="T4">
-        <v>0.9999880199901097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9999647632779055</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000258357610484</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="D5">
-        <v>0.9989666085964711</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="E5">
-        <v>1.000258357610484</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="F5">
-        <v>1.000258357610484</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="G5">
-        <v>1.000688932550158</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="H5">
-        <v>0.9994316340160744</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="I5">
-        <v>1.000258357610484</v>
+        <v>0.9983786912247852</v>
       </c>
       <c r="J5">
-        <v>0.9989666085964711</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="K5">
-        <v>1.000258357610484</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="L5">
-        <v>1.000258357610484</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="M5">
-        <v>0.9996124831034776</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="N5">
-        <v>0.9996124831034776</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="O5">
-        <v>0.9995522000743432</v>
+        <v>0.9987226057132573</v>
       </c>
       <c r="P5">
-        <v>0.9998277746058131</v>
+        <v>0.9995086962103753</v>
       </c>
       <c r="Q5">
-        <v>0.9998277746058131</v>
+        <v>0.9995086962103753</v>
       </c>
       <c r="R5">
-        <v>0.9999354203569808</v>
+        <v>0.9998157628368163</v>
       </c>
       <c r="S5">
-        <v>0.9999354203569808</v>
+        <v>0.9998157628368163</v>
       </c>
       <c r="T5">
-        <v>0.9999770413323592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.999934494791067</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000378922958191</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="D6">
-        <v>0.9984843496263277</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="E6">
-        <v>1.000378922958191</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="F6">
-        <v>1.000378922958191</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="G6">
-        <v>1.001010440393895</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="H6">
-        <v>0.999166390325081</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="I6">
-        <v>1.000378922958191</v>
+        <v>0.9946076941840079</v>
       </c>
       <c r="J6">
-        <v>0.9984843496263277</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="K6">
-        <v>1.000378922958191</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="L6">
-        <v>1.000378922958191</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="M6">
-        <v>0.9994316362922593</v>
+        <v>0.9963234272959325</v>
       </c>
       <c r="N6">
-        <v>0.9994316362922593</v>
+        <v>0.9963234272959325</v>
       </c>
       <c r="O6">
-        <v>0.9993432209698665</v>
+        <v>0.9957515162586242</v>
       </c>
       <c r="P6">
-        <v>0.9997473985142364</v>
+        <v>0.9983659689052594</v>
       </c>
       <c r="Q6">
-        <v>0.9997473985142364</v>
+        <v>0.9983659689052594</v>
       </c>
       <c r="R6">
-        <v>0.999905279625225</v>
+        <v>0.9993872397099228</v>
       </c>
       <c r="S6">
-        <v>0.999905279625225</v>
+        <v>0.9993872397099228</v>
       </c>
       <c r="T6">
-        <v>0.9999663248699795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>0.9997821341545112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00000207576019</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="D7">
-        <v>0.9999917104381881</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="E7">
-        <v>1.00000207576019</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="F7">
-        <v>1.00000207576019</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="G7">
-        <v>1.000005525638838</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="H7">
-        <v>0.9999954427117664</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="I7">
-        <v>1.00000207576019</v>
+        <v>0.9998213225223261</v>
       </c>
       <c r="J7">
-        <v>0.9999917104381881</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="K7">
-        <v>1.00000207576019</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="L7">
-        <v>1.00000207576019</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="M7">
-        <v>0.999996893099189</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="N7">
-        <v>0.999996893099189</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="O7">
-        <v>0.9999964096367148</v>
+        <v>0.9998592241654237</v>
       </c>
       <c r="P7">
-        <v>0.9999986206528559</v>
+        <v>0.9999458573983572</v>
       </c>
       <c r="Q7">
-        <v>0.9999986206528559</v>
+        <v>0.9999458573983572</v>
       </c>
       <c r="R7">
-        <v>0.9999994844296894</v>
+        <v>0.9999796986040496</v>
       </c>
       <c r="S7">
-        <v>0.9999994844296894</v>
+        <v>0.9999796986040496</v>
       </c>
       <c r="T7">
-        <v>0.9999998176782272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9999927829429746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000782842547</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="D8">
-        <v>0.9999968821242884</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="E8">
-        <v>1.000000782842547</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="F8">
-        <v>1.000000782842547</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="G8">
-        <v>1.000002077815884</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="H8">
-        <v>0.9999982870755649</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="I8">
-        <v>1.000000782842547</v>
+        <v>0.9999865667540628</v>
       </c>
       <c r="J8">
-        <v>0.9999968821242884</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="K8">
-        <v>1.000000782842547</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="L8">
-        <v>1.000000782842547</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="M8">
-        <v>0.9999988324834176</v>
+        <v>0.9999908418509618</v>
       </c>
       <c r="N8">
-        <v>0.9999988324834176</v>
+        <v>0.9999908418509618</v>
       </c>
       <c r="O8">
-        <v>0.9999986506808001</v>
+        <v>0.9999894168186622</v>
       </c>
       <c r="P8">
-        <v>0.9999994826031274</v>
+        <v>0.9999959315216698</v>
       </c>
       <c r="Q8">
-        <v>0.9999994826031274</v>
+        <v>0.9999959315216698</v>
       </c>
       <c r="R8">
-        <v>0.9999998076629822</v>
+        <v>0.9999984763570238</v>
       </c>
       <c r="S8">
-        <v>0.9999998076629822</v>
+        <v>0.9999984763570238</v>
       </c>
       <c r="T8">
-        <v>0.9999999325905629</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999994594495599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999928906909888</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="D9">
-        <v>1.000028450715356</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="E9">
-        <v>0.9999928906909888</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="F9">
-        <v>0.9999928906909888</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="G9">
-        <v>0.9999810325528772</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="H9">
-        <v>1.000015649807359</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="I9">
-        <v>0.9999928906909888</v>
+        <v>0.999703416915124</v>
       </c>
       <c r="J9">
-        <v>1.000028450715356</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="K9">
-        <v>0.9999928906909888</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="L9">
-        <v>0.9999928906909888</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="M9">
-        <v>1.000010670703172</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="N9">
-        <v>1.000010670703172</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="O9">
-        <v>1.000012330404568</v>
+        <v>0.9997663300318083</v>
       </c>
       <c r="P9">
-        <v>1.000004744032444</v>
+        <v>0.9999101300624705</v>
       </c>
       <c r="Q9">
-        <v>1.000004744032444</v>
+        <v>0.9999101300624705</v>
       </c>
       <c r="R9">
-        <v>1.00000178069708</v>
+        <v>0.9999663017986307</v>
       </c>
       <c r="S9">
-        <v>1.00000178069708</v>
+        <v>0.9999663017986307</v>
       </c>
       <c r="T9">
-        <v>1.000000634191426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9999880199901097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999921032779158</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="D10">
-        <v>1.000031604123303</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="E10">
-        <v>0.9999921032779158</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="F10">
-        <v>0.9999921032779158</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="G10">
-        <v>0.9999789305173188</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="H10">
-        <v>1.000017384278147</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="I10">
-        <v>0.9999921032779158</v>
+        <v>0.994527157302363</v>
       </c>
       <c r="J10">
-        <v>1.000031604123303</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="K10">
-        <v>0.9999921032779158</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="L10">
-        <v>0.9999921032779158</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="M10">
-        <v>1.00001185370061</v>
+        <v>0.9962685161726076</v>
       </c>
       <c r="N10">
-        <v>1.00001185370061</v>
+        <v>0.9962685161726076</v>
       </c>
       <c r="O10">
-        <v>1.000013697226455</v>
+        <v>0.9956880632158595</v>
       </c>
       <c r="P10">
-        <v>1.000005270226378</v>
+        <v>0.998341564122295</v>
       </c>
       <c r="Q10">
-        <v>1.000005270226378</v>
+        <v>0.998341564122295</v>
       </c>
       <c r="R10">
-        <v>1.000001978489263</v>
+        <v>0.9993780880971388</v>
       </c>
       <c r="S10">
-        <v>1.000001978489263</v>
+        <v>0.9993780880971388</v>
       </c>
       <c r="T10">
-        <v>1.000000704792086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>0.9997788803481593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999681983447424</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="D11">
-        <v>1.000127214607932</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="E11">
-        <v>0.9999681983447424</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="F11">
-        <v>0.9999681983447424</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="G11">
-        <v>0.9999151902425126</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="H11">
-        <v>1.000069971874449</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="I11">
-        <v>0.9999681983447424</v>
+        <v>0.994119481923199</v>
       </c>
       <c r="J11">
-        <v>1.000127214607932</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="K11">
-        <v>0.9999681983447424</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="L11">
-        <v>0.9999681983447424</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="M11">
-        <v>1.000047706476337</v>
+        <v>0.9959905571795149</v>
       </c>
       <c r="N11">
-        <v>1.000047706476337</v>
+        <v>0.9959905571795149</v>
       </c>
       <c r="O11">
-        <v>1.000055128275708</v>
+        <v>0.9953668654274096</v>
       </c>
       <c r="P11">
-        <v>1.000021203765806</v>
+        <v>0.998218027658066</v>
       </c>
       <c r="Q11">
-        <v>1.000021203765806</v>
+        <v>0.998218027658066</v>
       </c>
       <c r="R11">
-        <v>1.00000795241054</v>
+        <v>0.9993317628973415</v>
       </c>
       <c r="S11">
-        <v>1.00000795241054</v>
+        <v>0.9993317628973415</v>
       </c>
       <c r="T11">
-        <v>1.00000282862652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.999762405391016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000120094216192</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="D12">
-        <v>0.9995196357321918</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="E12">
-        <v>1.000120094216192</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="F12">
-        <v>1.000120094216192</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="G12">
-        <v>1.000320241021014</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="H12">
-        <v>0.9997357961980133</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="I12">
-        <v>1.000120094216192</v>
+        <v>0.9981609925473705</v>
       </c>
       <c r="J12">
-        <v>0.9995196357321918</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="K12">
-        <v>1.000120094216192</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="L12">
-        <v>1.000120094216192</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="M12">
-        <v>0.9998198649741917</v>
+        <v>0.9987461325473672</v>
       </c>
       <c r="N12">
-        <v>0.9998198649741917</v>
+        <v>0.9987461325473672</v>
       </c>
       <c r="O12">
-        <v>0.9997918420487989</v>
+        <v>0.9985510858807016</v>
       </c>
       <c r="P12">
-        <v>0.9999199413881916</v>
+        <v>0.9994427271228058</v>
       </c>
       <c r="Q12">
-        <v>0.9999199413881916</v>
+        <v>0.9994427271228058</v>
       </c>
       <c r="R12">
-        <v>0.9999699795951916</v>
+        <v>0.9997910244105251</v>
       </c>
       <c r="S12">
-        <v>0.9999699795951916</v>
+        <v>0.9997910244105251</v>
       </c>
       <c r="T12">
-        <v>0.9999893259332989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>0.999925699007017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000032580109521</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="D13">
-        <v>0.9998696851522243</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="E13">
-        <v>1.000032580109521</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="F13">
-        <v>1.000032580109521</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="G13">
-        <v>1.000086877963037</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="H13">
-        <v>0.999928331150933</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="I13">
-        <v>1.000032580109521</v>
+        <v>1.001076354526652</v>
       </c>
       <c r="J13">
-        <v>0.9998696851522243</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="K13">
-        <v>1.000032580109521</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="L13">
-        <v>1.000032580109521</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="M13">
-        <v>0.9999511326308728</v>
+        <v>1.000733880135701</v>
       </c>
       <c r="N13">
-        <v>0.9999511326308728</v>
+        <v>1.000733880135701</v>
       </c>
       <c r="O13">
-        <v>0.9999435321375595</v>
+        <v>1.000848038266018</v>
       </c>
       <c r="P13">
-        <v>0.9999782817904223</v>
+        <v>1.000326171173509</v>
       </c>
       <c r="Q13">
-        <v>0.9999782817904223</v>
+        <v>1.000326171173509</v>
       </c>
       <c r="R13">
-        <v>0.9999918563701971</v>
+        <v>1.000122316692413</v>
       </c>
       <c r="S13">
-        <v>0.9999918563701971</v>
+        <v>1.000122316692413</v>
       </c>
       <c r="T13">
-        <v>0.9999971057657929</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.000043491738832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.988574515860675</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="D14">
-        <v>1.045701945667218</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E14">
-        <v>0.988574515860675</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="F14">
-        <v>0.988574515860675</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G14">
-        <v>0.969532040033978</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="H14">
-        <v>1.025136069581616</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="I14">
-        <v>0.988574515860675</v>
+        <v>0.9905446300000009</v>
       </c>
       <c r="J14">
-        <v>1.045701945667218</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="K14">
-        <v>0.988574515860675</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L14">
-        <v>0.988574515860675</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="M14">
-        <v>1.017138230763946</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="N14">
-        <v>1.017138230763946</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="O14">
-        <v>1.019804177036503</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P14">
-        <v>1.007616992462856</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="Q14">
-        <v>1.007616992462856</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="R14">
-        <v>1.002856373312311</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="S14">
-        <v>1.002856373312311</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="T14">
-        <v>1.001015600477473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>0.9996179733333328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9969546944137678</v>
+        <v>1.0687664</v>
       </c>
       <c r="D15">
-        <v>1.012181208237609</v>
+        <v>0.98280841</v>
       </c>
       <c r="E15">
-        <v>0.9969546944137678</v>
+        <v>0.98280841</v>
       </c>
       <c r="F15">
-        <v>0.9969546944137678</v>
+        <v>1.0687664</v>
       </c>
       <c r="G15">
-        <v>0.9918791945001935</v>
+        <v>0.98280841</v>
       </c>
       <c r="H15">
-        <v>1.006699670278214</v>
+        <v>0.98280841</v>
       </c>
       <c r="I15">
-        <v>0.9969546944137678</v>
+        <v>1.0378215</v>
       </c>
       <c r="J15">
-        <v>1.012181208237609</v>
+        <v>0.95415576</v>
       </c>
       <c r="K15">
-        <v>0.9969546944137678</v>
+        <v>0.98280841</v>
       </c>
       <c r="L15">
-        <v>0.9969546944137678</v>
+        <v>0.98280841</v>
       </c>
       <c r="M15">
-        <v>1.004567951325689</v>
+        <v>1.025787405</v>
       </c>
       <c r="N15">
-        <v>1.004567951325689</v>
+        <v>1.025787405</v>
       </c>
       <c r="O15">
-        <v>1.005278524309864</v>
+        <v>1.02979877</v>
       </c>
       <c r="P15">
-        <v>1.002030199021715</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="Q15">
-        <v>1.002030199021715</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="R15">
-        <v>1.000761322869728</v>
+        <v>1.0042979075</v>
       </c>
       <c r="S15">
-        <v>1.000761322869728</v>
+        <v>1.0042979075</v>
       </c>
       <c r="T15">
-        <v>1.000270692709553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>1.001528148333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000291698404</v>
+        <v>0.98280841</v>
       </c>
       <c r="D16">
-        <v>0.9999988471686717</v>
+        <v>1.0042979</v>
       </c>
       <c r="E16">
-        <v>1.000000291698404</v>
+        <v>1.0042979</v>
       </c>
       <c r="F16">
-        <v>1.000000291698404</v>
+        <v>0.98280841</v>
       </c>
       <c r="G16">
-        <v>1.000000767756064</v>
+        <v>1.0042979</v>
       </c>
       <c r="H16">
-        <v>0.9999993679289734</v>
+        <v>1.0042979</v>
       </c>
       <c r="I16">
-        <v>1.000000291698404</v>
+        <v>0.99054463</v>
       </c>
       <c r="J16">
-        <v>0.9999988471686717</v>
+        <v>1.0114611</v>
       </c>
       <c r="K16">
-        <v>1.000000291698404</v>
+        <v>1.0042979</v>
       </c>
       <c r="L16">
-        <v>1.000000291698404</v>
+        <v>1.0042979</v>
       </c>
       <c r="M16">
-        <v>0.9999995694335377</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N16">
-        <v>0.9999995694335377</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O16">
-        <v>0.9999995022653496</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P16">
-        <v>0.999999810188493</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q16">
-        <v>0.999999810188493</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R16">
-        <v>0.9999999305659708</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S16">
-        <v>0.9999999305659708</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T16">
-        <v>0.99999997632482</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000006110863086</v>
+        <v>1.0472769</v>
       </c>
       <c r="D17">
-        <v>0.9999755728388374</v>
+        <v>0.98818078</v>
       </c>
       <c r="E17">
-        <v>1.000006110863086</v>
+        <v>0.98818078</v>
       </c>
       <c r="F17">
-        <v>1.000006110863086</v>
+        <v>1.0472769</v>
       </c>
       <c r="G17">
-        <v>1.000016284515201</v>
+        <v>0.98818078</v>
       </c>
       <c r="H17">
-        <v>0.9999865667540627</v>
+        <v>0.98818078</v>
       </c>
       <c r="I17">
-        <v>1.000006110863086</v>
+        <v>1.0260023</v>
       </c>
       <c r="J17">
-        <v>0.9999755728388374</v>
+        <v>0.96848208</v>
       </c>
       <c r="K17">
-        <v>1.000006110863086</v>
+        <v>0.98818078</v>
       </c>
       <c r="L17">
-        <v>1.000006110863086</v>
+        <v>0.98818078</v>
       </c>
       <c r="M17">
-        <v>0.9999908418509615</v>
+        <v>1.01772884</v>
       </c>
       <c r="N17">
-        <v>0.9999908418509615</v>
+        <v>1.01772884</v>
       </c>
       <c r="O17">
-        <v>0.9999894168186619</v>
+        <v>1.02048666</v>
       </c>
       <c r="P17">
-        <v>0.9999959315216697</v>
+        <v>1.007879486666667</v>
       </c>
       <c r="Q17">
-        <v>0.9999959315216697</v>
+        <v>1.007879486666667</v>
       </c>
       <c r="R17">
-        <v>0.9999984763570237</v>
+        <v>1.00295481</v>
       </c>
       <c r="S17">
-        <v>0.9999984763570237</v>
+        <v>1.00295481</v>
       </c>
       <c r="T17">
-        <v>0.9999994594495597</v>
+        <v>1.001050603333334</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000021505837732</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="D18">
-        <v>0.9999139972541674</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="E18">
-        <v>1.000021505837732</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="F18">
-        <v>1.000021505837732</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="G18">
-        <v>1.000057334495987</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="H18">
-        <v>0.9999527026489272</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="I18">
-        <v>1.000021505837732</v>
+        <v>0.9970209117808218</v>
       </c>
       <c r="J18">
-        <v>0.9999139972541674</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="K18">
-        <v>1.000021505837732</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="L18">
-        <v>1.000021505837732</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="M18">
-        <v>0.99996775154595</v>
+        <v>0.997968810479452</v>
       </c>
       <c r="N18">
-        <v>0.99996775154595</v>
+        <v>0.997968810479452</v>
       </c>
       <c r="O18">
-        <v>0.9999627352469425</v>
+        <v>0.9976528442465753</v>
       </c>
       <c r="P18">
-        <v>0.9999856696432108</v>
+        <v>0.9990972551598173</v>
       </c>
       <c r="Q18">
-        <v>0.9999856696432108</v>
+        <v>0.9990972551598173</v>
       </c>
       <c r="R18">
-        <v>0.9999946286918412</v>
+        <v>0.9996614774999999</v>
       </c>
       <c r="S18">
-        <v>0.9999946286918412</v>
+        <v>0.9996614774999999</v>
       </c>
       <c r="T18">
-        <v>0.9999980919853796</v>
+        <v>0.9998796407077624</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000050377160312</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="D19">
-        <v>0.9997985203512424</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="E19">
-        <v>1.000050377160312</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="F19">
-        <v>1.000050377160312</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="G19">
-        <v>1.000134320971912</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="H19">
-        <v>0.9998891898300706</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="I19">
-        <v>1.000050377160312</v>
+        <v>1.012938931578947</v>
       </c>
       <c r="J19">
-        <v>0.9997985203512424</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="K19">
-        <v>1.000050377160312</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="L19">
-        <v>1.000050377160312</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="M19">
-        <v>0.9999244487557772</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="N19">
-        <v>0.9999244487557772</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="O19">
-        <v>0.9999126957805418</v>
+        <v>1.010194313157895</v>
       </c>
       <c r="P19">
-        <v>0.9999664248906223</v>
+        <v>1.00392089122807</v>
       </c>
       <c r="Q19">
-        <v>0.9999664248906223</v>
+        <v>1.00392089122807</v>
       </c>
       <c r="R19">
-        <v>0.9999874129580446</v>
+        <v>1.001470334868421</v>
       </c>
       <c r="S19">
-        <v>0.9999874129580446</v>
+        <v>1.001470334868421</v>
       </c>
       <c r="T19">
-        <v>0.9999955271056935</v>
+        <v>1.000522786052631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="D20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="E20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="F20">
+        <v>0.9952496973684208</v>
+      </c>
+      <c r="G20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="H20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="I20">
+        <v>0.9973873331578945</v>
+      </c>
+      <c r="J20">
+        <v>1.003166876315789</v>
+      </c>
+      <c r="K20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="L20">
+        <v>1.001187588947368</v>
+      </c>
+      <c r="M20">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="N20">
+        <v>0.9982186431578944</v>
+      </c>
+      <c r="O20">
+        <v>0.9979415398245611</v>
+      </c>
+      <c r="P20">
+        <v>0.9992082917543857</v>
+      </c>
+      <c r="Q20">
+        <v>0.9992082917543857</v>
+      </c>
+      <c r="R20">
+        <v>0.9997031160526313</v>
+      </c>
+      <c r="S20">
+        <v>0.9997031160526313</v>
+      </c>
+      <c r="T20">
+        <v>0.9998944456140348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="D21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="E21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="F21">
+        <v>1.045701945667218</v>
+      </c>
+      <c r="G21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="H21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="I21">
+        <v>1.025136069581616</v>
+      </c>
+      <c r="J21">
+        <v>0.969532040033978</v>
+      </c>
+      <c r="K21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="L21">
+        <v>0.988574515860675</v>
+      </c>
+      <c r="M21">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="N21">
+        <v>1.017138230763946</v>
+      </c>
+      <c r="O21">
+        <v>1.019804177036503</v>
+      </c>
+      <c r="P21">
+        <v>1.007616992462856</v>
+      </c>
+      <c r="Q21">
+        <v>1.007616992462856</v>
+      </c>
+      <c r="R21">
+        <v>1.002856373312311</v>
+      </c>
+      <c r="S21">
+        <v>1.002856373312311</v>
+      </c>
+      <c r="T21">
+        <v>1.001015600477473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="D22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="E22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="F22">
+        <v>1.012181208237609</v>
+      </c>
+      <c r="G22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="H22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="I22">
+        <v>1.006699670278214</v>
+      </c>
+      <c r="J22">
+        <v>0.9918791945001935</v>
+      </c>
+      <c r="K22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="L22">
+        <v>0.9969546944137678</v>
+      </c>
+      <c r="M22">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="N22">
+        <v>1.004567951325689</v>
+      </c>
+      <c r="O22">
+        <v>1.005278524309864</v>
+      </c>
+      <c r="P22">
+        <v>1.002030199021715</v>
+      </c>
+      <c r="Q22">
+        <v>1.002030199021715</v>
+      </c>
+      <c r="R22">
+        <v>1.000761322869728</v>
+      </c>
+      <c r="S22">
+        <v>1.000761322869728</v>
+      </c>
+      <c r="T22">
+        <v>1.000270692709553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="D23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="E23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="F23">
+        <v>0.9995196357321918</v>
+      </c>
+      <c r="G23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="H23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="I23">
+        <v>0.9997357961980131</v>
+      </c>
+      <c r="J23">
+        <v>1.000320241021014</v>
+      </c>
+      <c r="K23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="L23">
+        <v>1.000120094216192</v>
+      </c>
+      <c r="M23">
+        <v>0.9998198649741917</v>
+      </c>
+      <c r="N23">
+        <v>0.9998198649741917</v>
+      </c>
+      <c r="O23">
+        <v>0.9997918420487988</v>
+      </c>
+      <c r="P23">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999199413881916</v>
+      </c>
+      <c r="R23">
+        <v>0.9999699795951916</v>
+      </c>
+      <c r="S23">
+        <v>0.9999699795951916</v>
+      </c>
+      <c r="T23">
+        <v>0.9999893259332989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="D24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="E24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="F24">
+        <v>0.9998696851522243</v>
+      </c>
+      <c r="G24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="H24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="I24">
+        <v>0.9999283311509329</v>
+      </c>
+      <c r="J24">
+        <v>1.000086877963037</v>
+      </c>
+      <c r="K24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="L24">
+        <v>1.000032580109521</v>
+      </c>
+      <c r="M24">
+        <v>0.9999511326308728</v>
+      </c>
+      <c r="N24">
+        <v>0.9999511326308728</v>
+      </c>
+      <c r="O24">
+        <v>0.9999435321375595</v>
+      </c>
+      <c r="P24">
+        <v>0.9999782817904223</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999782817904223</v>
+      </c>
+      <c r="R24">
+        <v>0.9999918563701971</v>
+      </c>
+      <c r="S24">
+        <v>0.9999918563701971</v>
+      </c>
+      <c r="T24">
+        <v>0.9999971057657929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="D25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="E25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="F25">
+        <v>0.9642704642877111</v>
+      </c>
+      <c r="G25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="H25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="I25">
+        <v>0.9803487537850353</v>
+      </c>
+      <c r="J25">
+        <v>1.023819690784401</v>
+      </c>
+      <c r="K25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="L25">
+        <v>1.008932394824936</v>
+      </c>
+      <c r="M25">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="N25">
+        <v>0.9866014295563237</v>
+      </c>
+      <c r="O25">
+        <v>0.9845172042992276</v>
+      </c>
+      <c r="P25">
+        <v>0.9940450846458612</v>
+      </c>
+      <c r="Q25">
+        <v>0.9940450846458612</v>
+      </c>
+      <c r="R25">
+        <v>0.9977669121906299</v>
+      </c>
+      <c r="S25">
+        <v>0.9977669121906299</v>
+      </c>
+      <c r="T25">
+        <v>0.9992060155553261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9904061168911402</v>
+      </c>
+      <c r="D26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="E26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="F26">
+        <v>0.9904061168911402</v>
+      </c>
+      <c r="G26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="H26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="I26">
+        <v>0.9947233633050211</v>
+      </c>
+      <c r="J26">
+        <v>1.006395918014905</v>
+      </c>
+      <c r="K26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="L26">
+        <v>1.002398478429737</v>
+      </c>
+      <c r="M26">
+        <v>0.9964022976604388</v>
+      </c>
+      <c r="N26">
+        <v>0.9964022976604388</v>
+      </c>
+      <c r="O26">
+        <v>0.9958426528752996</v>
+      </c>
+      <c r="P26">
+        <v>0.9984010245835382</v>
+      </c>
+      <c r="Q26">
+        <v>0.9984010245835382</v>
+      </c>
+      <c r="R26">
+        <v>0.9994003880450879</v>
+      </c>
+      <c r="S26">
+        <v>0.9994003880450879</v>
+      </c>
+      <c r="T26">
+        <v>0.9997868055833797</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="D27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="E27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="F27">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="G27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="H27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="I27">
+        <v>0.9994364608848769</v>
+      </c>
+      <c r="J27">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="K27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="L27">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="M27">
+        <v>0.9996157795267397</v>
+      </c>
+      <c r="N27">
+        <v>0.9996157795267397</v>
+      </c>
+      <c r="O27">
+        <v>0.9995560066461188</v>
+      </c>
+      <c r="P27">
+        <v>0.9998292430651988</v>
+      </c>
+      <c r="Q27">
+        <v>0.9998292430651988</v>
+      </c>
+      <c r="R27">
+        <v>0.9999359748344285</v>
+      </c>
+      <c r="S27">
+        <v>0.9999359748344285</v>
+      </c>
+      <c r="T27">
+        <v>0.9999772402498657</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="D28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="E28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="F28">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="G28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="H28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="I28">
+        <v>1.000568549101501</v>
+      </c>
+      <c r="J28">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="K28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="L28">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="M28">
+        <v>1.000387645310711</v>
+      </c>
+      <c r="N28">
+        <v>1.000387645310711</v>
+      </c>
+      <c r="O28">
+        <v>1.000447946574308</v>
+      </c>
+      <c r="P28">
+        <v>1.00017229101759</v>
+      </c>
+      <c r="Q28">
+        <v>1.00017229101759</v>
+      </c>
+      <c r="R28">
+        <v>1.000064613871029</v>
+      </c>
+      <c r="S28">
+        <v>1.000064613871029</v>
+      </c>
+      <c r="T28">
+        <v>1.000022977122544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.004495382678261</v>
+      </c>
+      <c r="D29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="E29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="F29">
+        <v>1.004495382678261</v>
+      </c>
+      <c r="G29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="H29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="I29">
+        <v>1.002472472718944</v>
+      </c>
+      <c r="J29">
+        <v>0.9970030735112908</v>
+      </c>
+      <c r="K29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="L29">
+        <v>0.998876172065593</v>
+      </c>
+      <c r="M29">
+        <v>1.001685777371927</v>
+      </c>
+      <c r="N29">
+        <v>1.001685777371927</v>
+      </c>
+      <c r="O29">
+        <v>1.001948009154266</v>
+      </c>
+      <c r="P29">
+        <v>1.000749242269816</v>
+      </c>
+      <c r="Q29">
+        <v>1.000749242269816</v>
+      </c>
+      <c r="R29">
+        <v>1.00028097471876</v>
+      </c>
+      <c r="S29">
+        <v>1.00028097471876</v>
+      </c>
+      <c r="T29">
+        <v>1.000099907517546</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9984142526515971</v>
+        <v>0.997192584478829</v>
       </c>
       <c r="D4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="E4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="F4">
-        <v>0.9984142526515971</v>
+        <v>0.997192584478829</v>
       </c>
       <c r="G4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="H4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="I4">
-        <v>0.9991278411719423</v>
+        <v>0.9984559229869511</v>
       </c>
       <c r="J4">
-        <v>1.001057162099064</v>
+        <v>1.001871610715191</v>
       </c>
       <c r="K4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="L4">
-        <v>1.000396441248276</v>
+        <v>1.000701857040393</v>
       </c>
       <c r="M4">
-        <v>0.9994053469499368</v>
+        <v>0.9989472207596108</v>
       </c>
       <c r="N4">
-        <v>0.9994053469499368</v>
+        <v>0.9989472207596108</v>
       </c>
       <c r="O4">
-        <v>0.9993128450239386</v>
+        <v>0.998783454835391</v>
       </c>
       <c r="P4">
-        <v>0.9997357117160499</v>
+        <v>0.9995320995198714</v>
       </c>
       <c r="Q4">
-        <v>0.9997357117160499</v>
+        <v>0.9995320995198714</v>
       </c>
       <c r="R4">
-        <v>0.9999008940991065</v>
+        <v>0.9998245389000018</v>
       </c>
       <c r="S4">
-        <v>0.9999008940991065</v>
+        <v>0.9998245389000018</v>
       </c>
       <c r="T4">
-        <v>0.9999647632779055</v>
+        <v>0.9999376148836916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9970521631988478</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="D5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="E5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="F5">
-        <v>0.9970521631988478</v>
+        <v>0.994513752543125</v>
       </c>
       <c r="G5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="H5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="I5">
-        <v>0.9983786912247852</v>
+        <v>0.996982563572071</v>
       </c>
       <c r="J5">
-        <v>1.001965226174351</v>
+        <v>1.003657505162014</v>
       </c>
       <c r="K5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="L5">
-        <v>1.000736962716139</v>
+        <v>1.001371574925625</v>
       </c>
       <c r="M5">
-        <v>0.9988945629574935</v>
+        <v>0.9979426637343749</v>
       </c>
       <c r="N5">
-        <v>0.9988945629574935</v>
+        <v>0.9979426637343749</v>
       </c>
       <c r="O5">
-        <v>0.9987226057132573</v>
+        <v>0.9976226303469403</v>
       </c>
       <c r="P5">
-        <v>0.9995086962103753</v>
+        <v>0.9990856341314581</v>
       </c>
       <c r="Q5">
-        <v>0.9995086962103753</v>
+        <v>0.9990856341314581</v>
       </c>
       <c r="R5">
-        <v>0.9998157628368163</v>
+        <v>0.9996571193299998</v>
       </c>
       <c r="S5">
-        <v>0.9998157628368163</v>
+        <v>0.9996571193299998</v>
       </c>
       <c r="T5">
-        <v>0.999934494791067</v>
+        <v>0.999878091009014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9901958024679519</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="D6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="E6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="F6">
-        <v>0.9901958024679519</v>
+        <v>0.9984142526515971</v>
       </c>
       <c r="G6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="H6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="I6">
-        <v>0.9946076941840079</v>
+        <v>0.9991278411719423</v>
       </c>
       <c r="J6">
-        <v>1.006536151903368</v>
+        <v>1.001057162099064</v>
       </c>
       <c r="K6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="L6">
-        <v>1.002451052123913</v>
+        <v>1.000396441248276</v>
       </c>
       <c r="M6">
-        <v>0.9963234272959325</v>
+        <v>0.9994053469499368</v>
       </c>
       <c r="N6">
-        <v>0.9963234272959325</v>
+        <v>0.9994053469499368</v>
       </c>
       <c r="O6">
-        <v>0.9957515162586242</v>
+        <v>0.9993128450239386</v>
       </c>
       <c r="P6">
-        <v>0.9983659689052594</v>
+        <v>0.9997357117160499</v>
       </c>
       <c r="Q6">
-        <v>0.9983659689052594</v>
+        <v>0.9997357117160499</v>
       </c>
       <c r="R6">
-        <v>0.9993872397099228</v>
+        <v>0.9999008940991065</v>
       </c>
       <c r="S6">
-        <v>0.9993872397099228</v>
+        <v>0.9999008940991065</v>
       </c>
       <c r="T6">
-        <v>0.9997821341545112</v>
+        <v>0.9999647632779055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996751277528185</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="D7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="E7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="F7">
-        <v>0.9996751277528185</v>
+        <v>0.9970521631988478</v>
       </c>
       <c r="G7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="H7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="I7">
-        <v>0.9998213225223261</v>
+        <v>0.9983786912247852</v>
       </c>
       <c r="J7">
-        <v>1.000216580719323</v>
+        <v>1.001965226174351</v>
       </c>
       <c r="K7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="L7">
-        <v>1.000081222221127</v>
+        <v>1.000736962716139</v>
       </c>
       <c r="M7">
-        <v>0.9998781749869725</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="N7">
-        <v>0.9998781749869725</v>
+        <v>0.9988945629574935</v>
       </c>
       <c r="O7">
-        <v>0.9998592241654237</v>
+        <v>0.9987226057132573</v>
       </c>
       <c r="P7">
-        <v>0.9999458573983572</v>
+        <v>0.9995086962103753</v>
       </c>
       <c r="Q7">
-        <v>0.9999458573983572</v>
+        <v>0.9995086962103753</v>
       </c>
       <c r="R7">
-        <v>0.9999796986040496</v>
+        <v>0.9998157628368163</v>
       </c>
       <c r="S7">
-        <v>0.9999796986040496</v>
+        <v>0.9998157628368163</v>
       </c>
       <c r="T7">
-        <v>0.9999927829429746</v>
+        <v>0.999934494791067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999755728388378</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="D8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="E8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="F8">
-        <v>0.9999755728388378</v>
+        <v>0.9901958024679519</v>
       </c>
       <c r="G8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="H8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="I8">
-        <v>0.9999865667540628</v>
+        <v>0.9946076941840079</v>
       </c>
       <c r="J8">
-        <v>1.000016284515201</v>
+        <v>1.006536151903368</v>
       </c>
       <c r="K8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="L8">
-        <v>1.000006110863086</v>
+        <v>1.002451052123913</v>
       </c>
       <c r="M8">
-        <v>0.9999908418509618</v>
+        <v>0.9963234272959325</v>
       </c>
       <c r="N8">
-        <v>0.9999908418509618</v>
+        <v>0.9963234272959325</v>
       </c>
       <c r="O8">
-        <v>0.9999894168186622</v>
+        <v>0.9957515162586242</v>
       </c>
       <c r="P8">
-        <v>0.9999959315216698</v>
+        <v>0.9983659689052594</v>
       </c>
       <c r="Q8">
-        <v>0.9999959315216698</v>
+        <v>0.9983659689052594</v>
       </c>
       <c r="R8">
-        <v>0.9999984763570238</v>
+        <v>0.9993872397099228</v>
       </c>
       <c r="S8">
-        <v>0.9999984763570238</v>
+        <v>0.9993872397099228</v>
       </c>
       <c r="T8">
-        <v>0.9999994594495599</v>
+        <v>0.9997821341545112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9994607561731895</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="D9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="E9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="F9">
-        <v>0.9994607561731895</v>
+        <v>0.9996751277528185</v>
       </c>
       <c r="G9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="H9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="I9">
-        <v>0.999703416915124</v>
+        <v>0.9998213225223261</v>
       </c>
       <c r="J9">
-        <v>1.000359495831011</v>
+        <v>1.000216580719323</v>
       </c>
       <c r="K9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="L9">
-        <v>1.000134817007111</v>
+        <v>1.000081222221127</v>
       </c>
       <c r="M9">
-        <v>0.9997977865901504</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="N9">
-        <v>0.9997977865901504</v>
+        <v>0.9998781749869725</v>
       </c>
       <c r="O9">
-        <v>0.9997663300318083</v>
+        <v>0.9998592241654237</v>
       </c>
       <c r="P9">
-        <v>0.9999101300624705</v>
+        <v>0.9999458573983572</v>
       </c>
       <c r="Q9">
-        <v>0.9999101300624705</v>
+        <v>0.9999458573983572</v>
       </c>
       <c r="R9">
-        <v>0.9999663017986307</v>
+        <v>0.9999796986040496</v>
       </c>
       <c r="S9">
-        <v>0.9999663017986307</v>
+        <v>0.9999796986040496</v>
       </c>
       <c r="T9">
-        <v>0.9999880199901097</v>
+        <v>0.9999927829429746</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9900493723235453</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="D10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="E10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="F10">
-        <v>0.9900493723235453</v>
+        <v>0.9999755728388378</v>
       </c>
       <c r="G10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="H10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="I10">
-        <v>0.994527157302363</v>
+        <v>0.9999865667540628</v>
       </c>
       <c r="J10">
-        <v>1.006633772398039</v>
+        <v>1.000016284515201</v>
       </c>
       <c r="K10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="L10">
-        <v>1.00248766002167</v>
+        <v>1.000006110863086</v>
       </c>
       <c r="M10">
-        <v>0.9962685161726076</v>
+        <v>0.9999908418509618</v>
       </c>
       <c r="N10">
-        <v>0.9962685161726076</v>
+        <v>0.9999908418509618</v>
       </c>
       <c r="O10">
-        <v>0.9956880632158595</v>
+        <v>0.9999894168186622</v>
       </c>
       <c r="P10">
-        <v>0.998341564122295</v>
+        <v>0.9999959315216698</v>
       </c>
       <c r="Q10">
-        <v>0.998341564122295</v>
+        <v>0.9999959315216698</v>
       </c>
       <c r="R10">
-        <v>0.9993780880971388</v>
+        <v>0.9999984763570238</v>
       </c>
       <c r="S10">
-        <v>0.9993780880971388</v>
+        <v>0.9999984763570238</v>
       </c>
       <c r="T10">
-        <v>0.9997788803481593</v>
+        <v>0.9999994594495599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9893081457438621</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="D11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="E11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="F11">
-        <v>0.9893081457438621</v>
+        <v>0.9994607561731895</v>
       </c>
       <c r="G11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="H11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="I11">
-        <v>0.994119481923199</v>
+        <v>0.999703416915124</v>
       </c>
       <c r="J11">
-        <v>1.007127898833531</v>
+        <v>1.000359495831011</v>
       </c>
       <c r="K11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="L11">
-        <v>1.002672968615168</v>
+        <v>1.000134817007111</v>
       </c>
       <c r="M11">
-        <v>0.9959905571795149</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="N11">
-        <v>0.9959905571795149</v>
+        <v>0.9997977865901504</v>
       </c>
       <c r="O11">
-        <v>0.9953668654274096</v>
+        <v>0.9997663300318083</v>
       </c>
       <c r="P11">
-        <v>0.998218027658066</v>
+        <v>0.9999101300624705</v>
       </c>
       <c r="Q11">
-        <v>0.998218027658066</v>
+        <v>0.9999101300624705</v>
       </c>
       <c r="R11">
-        <v>0.9993317628973415</v>
+        <v>0.9999663017986307</v>
       </c>
       <c r="S11">
-        <v>0.9993317628973415</v>
+        <v>0.9999663017986307</v>
       </c>
       <c r="T11">
-        <v>0.999762405391016</v>
+        <v>0.9999880199901097</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9966563488210515</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="D12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="E12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="F12">
-        <v>0.9966563488210515</v>
+        <v>0.9900493723235453</v>
       </c>
       <c r="G12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="H12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="I12">
-        <v>0.9981609925473705</v>
+        <v>0.994527157302363</v>
       </c>
       <c r="J12">
-        <v>1.002229103852631</v>
+        <v>1.006633772398039</v>
       </c>
       <c r="K12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="L12">
-        <v>1.000835916273683</v>
+        <v>1.00248766002167</v>
       </c>
       <c r="M12">
-        <v>0.9987461325473672</v>
+        <v>0.9962685161726076</v>
       </c>
       <c r="N12">
-        <v>0.9987461325473672</v>
+        <v>0.9962685161726076</v>
       </c>
       <c r="O12">
-        <v>0.9985510858807016</v>
+        <v>0.9956880632158595</v>
       </c>
       <c r="P12">
-        <v>0.9994427271228058</v>
+        <v>0.998341564122295</v>
       </c>
       <c r="Q12">
-        <v>0.9994427271228058</v>
+        <v>0.998341564122295</v>
       </c>
       <c r="R12">
-        <v>0.9997910244105251</v>
+        <v>0.9993780880971388</v>
       </c>
       <c r="S12">
-        <v>0.9997910244105251</v>
+        <v>0.9993780880971388</v>
       </c>
       <c r="T12">
-        <v>0.999925699007017</v>
+        <v>0.9997788803481593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.001957007022278</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="D13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="E13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="F13">
-        <v>1.001957007022278</v>
+        <v>0.9893081457438621</v>
       </c>
       <c r="G13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="H13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="I13">
-        <v>1.001076354526652</v>
+        <v>0.994119481923199</v>
       </c>
       <c r="J13">
-        <v>0.9986953291366857</v>
+        <v>1.007127898833531</v>
       </c>
       <c r="K13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="L13">
-        <v>0.9995107532491248</v>
+        <v>1.002672968615168</v>
       </c>
       <c r="M13">
-        <v>1.000733880135701</v>
+        <v>0.9959905571795149</v>
       </c>
       <c r="N13">
-        <v>1.000733880135701</v>
+        <v>0.9959905571795149</v>
       </c>
       <c r="O13">
-        <v>1.000848038266018</v>
+        <v>0.9953668654274096</v>
       </c>
       <c r="P13">
-        <v>1.000326171173509</v>
+        <v>0.998218027658066</v>
       </c>
       <c r="Q13">
-        <v>1.000326171173509</v>
+        <v>0.998218027658066</v>
       </c>
       <c r="R13">
-        <v>1.000122316692413</v>
+        <v>0.9993317628973415</v>
       </c>
       <c r="S13">
-        <v>1.000122316692413</v>
+        <v>0.9993317628973415</v>
       </c>
       <c r="T13">
-        <v>1.000043491738832</v>
+        <v>0.999762405391016</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9828084099999992</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="D14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="E14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="F14">
-        <v>0.9828084099999992</v>
+        <v>0.9966563488210515</v>
       </c>
       <c r="G14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="H14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="I14">
-        <v>0.9905446300000009</v>
+        <v>0.9981609925473705</v>
       </c>
       <c r="J14">
-        <v>1.011461099999999</v>
+        <v>1.002229103852631</v>
       </c>
       <c r="K14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="L14">
-        <v>1.004297899999999</v>
+        <v>1.000835916273683</v>
       </c>
       <c r="M14">
-        <v>0.9935531549999991</v>
+        <v>0.9987461325473672</v>
       </c>
       <c r="N14">
-        <v>0.9935531549999991</v>
+        <v>0.9987461325473672</v>
       </c>
       <c r="O14">
-        <v>0.9925503133333331</v>
+        <v>0.9985510858807016</v>
       </c>
       <c r="P14">
-        <v>0.9971347366666657</v>
+        <v>0.9994427271228058</v>
       </c>
       <c r="Q14">
-        <v>0.9971347366666657</v>
+        <v>0.9994427271228058</v>
       </c>
       <c r="R14">
-        <v>0.9989255274999991</v>
+        <v>0.9997910244105251</v>
       </c>
       <c r="S14">
-        <v>0.9989255274999991</v>
+        <v>0.9997910244105251</v>
       </c>
       <c r="T14">
-        <v>0.9996179733333328</v>
+        <v>0.999925699007017</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0687664</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="D15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="E15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="F15">
-        <v>1.0687664</v>
+        <v>1.001957007022278</v>
       </c>
       <c r="G15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="H15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="I15">
-        <v>1.0378215</v>
+        <v>1.001076354526652</v>
       </c>
       <c r="J15">
-        <v>0.95415576</v>
+        <v>0.9986953291366857</v>
       </c>
       <c r="K15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="L15">
-        <v>0.98280841</v>
+        <v>0.9995107532491248</v>
       </c>
       <c r="M15">
-        <v>1.025787405</v>
+        <v>1.000733880135701</v>
       </c>
       <c r="N15">
-        <v>1.025787405</v>
+        <v>1.000733880135701</v>
       </c>
       <c r="O15">
-        <v>1.02979877</v>
+        <v>1.000848038266018</v>
       </c>
       <c r="P15">
-        <v>1.011461073333333</v>
+        <v>1.000326171173509</v>
       </c>
       <c r="Q15">
-        <v>1.011461073333333</v>
+        <v>1.000326171173509</v>
       </c>
       <c r="R15">
-        <v>1.0042979075</v>
+        <v>1.000122316692413</v>
       </c>
       <c r="S15">
-        <v>1.0042979075</v>
+        <v>1.000122316692413</v>
       </c>
       <c r="T15">
-        <v>1.001528148333333</v>
+        <v>1.000043491738832</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="D16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="E16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="F16">
-        <v>0.98280841</v>
+        <v>0.9828084099999992</v>
       </c>
       <c r="G16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="H16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="I16">
-        <v>0.99054463</v>
+        <v>0.9905446300000009</v>
       </c>
       <c r="J16">
-        <v>1.0114611</v>
+        <v>1.011461099999999</v>
       </c>
       <c r="K16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="L16">
-        <v>1.0042979</v>
+        <v>1.004297899999999</v>
       </c>
       <c r="M16">
-        <v>0.9935531550000001</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="N16">
-        <v>0.9935531550000001</v>
+        <v>0.9935531549999991</v>
       </c>
       <c r="O16">
-        <v>0.9925503133333334</v>
+        <v>0.9925503133333331</v>
       </c>
       <c r="P16">
-        <v>0.9971347366666667</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="Q16">
-        <v>0.9971347366666667</v>
+        <v>0.9971347366666657</v>
       </c>
       <c r="R16">
-        <v>0.9989255275000001</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="S16">
-        <v>0.9989255275000001</v>
+        <v>0.9989255274999991</v>
       </c>
       <c r="T16">
-        <v>0.9996179733333334</v>
+        <v>0.9996179733333328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0472769</v>
+        <v>1.0687664</v>
       </c>
       <c r="D17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="E17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="F17">
-        <v>1.0472769</v>
+        <v>1.0687664</v>
       </c>
       <c r="G17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="H17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="I17">
-        <v>1.0260023</v>
+        <v>1.0378215</v>
       </c>
       <c r="J17">
-        <v>0.96848208</v>
+        <v>0.95415576</v>
       </c>
       <c r="K17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="L17">
-        <v>0.98818078</v>
+        <v>0.98280841</v>
       </c>
       <c r="M17">
-        <v>1.01772884</v>
+        <v>1.025787405</v>
       </c>
       <c r="N17">
-        <v>1.01772884</v>
+        <v>1.025787405</v>
       </c>
       <c r="O17">
-        <v>1.02048666</v>
+        <v>1.02979877</v>
       </c>
       <c r="P17">
-        <v>1.007879486666667</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="Q17">
-        <v>1.007879486666667</v>
+        <v>1.011461073333333</v>
       </c>
       <c r="R17">
-        <v>1.00295481</v>
+        <v>1.0042979075</v>
       </c>
       <c r="S17">
-        <v>1.00295481</v>
+        <v>1.0042979075</v>
       </c>
       <c r="T17">
-        <v>1.001050603333334</v>
+        <v>1.001528148333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9945834764383562</v>
+        <v>0.98280841</v>
       </c>
       <c r="D18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="E18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="F18">
-        <v>0.9945834764383562</v>
+        <v>0.98280841</v>
       </c>
       <c r="G18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="H18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="I18">
-        <v>0.9970209117808218</v>
+        <v>0.99054463</v>
       </c>
       <c r="J18">
-        <v>1.003611022465753</v>
+        <v>1.0114611</v>
       </c>
       <c r="K18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="L18">
-        <v>1.001354144520548</v>
+        <v>1.0042979</v>
       </c>
       <c r="M18">
-        <v>0.997968810479452</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="N18">
-        <v>0.997968810479452</v>
+        <v>0.9935531550000001</v>
       </c>
       <c r="O18">
-        <v>0.9976528442465753</v>
+        <v>0.9925503133333334</v>
       </c>
       <c r="P18">
-        <v>0.9990972551598173</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="Q18">
-        <v>0.9990972551598173</v>
+        <v>0.9971347366666667</v>
       </c>
       <c r="R18">
-        <v>0.9996614774999999</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="S18">
-        <v>0.9996614774999999</v>
+        <v>0.9989255275000001</v>
       </c>
       <c r="T18">
-        <v>0.9998796407077624</v>
+        <v>0.9996179733333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.023525342105263</v>
+        <v>1.0472769</v>
       </c>
       <c r="D19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="E19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="F19">
-        <v>1.023525342105263</v>
+        <v>1.0472769</v>
       </c>
       <c r="G19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="H19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="I19">
-        <v>1.012938931578947</v>
+        <v>1.0260023</v>
       </c>
       <c r="J19">
-        <v>0.984316445263158</v>
+        <v>0.96848208</v>
       </c>
       <c r="K19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="L19">
-        <v>0.9941186657894736</v>
+        <v>0.98818078</v>
       </c>
       <c r="M19">
-        <v>1.008822003947368</v>
+        <v>1.01772884</v>
       </c>
       <c r="N19">
-        <v>1.008822003947368</v>
+        <v>1.01772884</v>
       </c>
       <c r="O19">
-        <v>1.010194313157895</v>
+        <v>1.02048666</v>
       </c>
       <c r="P19">
-        <v>1.00392089122807</v>
+        <v>1.007879486666667</v>
       </c>
       <c r="Q19">
-        <v>1.00392089122807</v>
+        <v>1.007879486666667</v>
       </c>
       <c r="R19">
-        <v>1.001470334868421</v>
+        <v>1.00295481</v>
       </c>
       <c r="S19">
-        <v>1.001470334868421</v>
+        <v>1.00295481</v>
       </c>
       <c r="T19">
-        <v>1.000522786052631</v>
+        <v>1.001050603333334</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9952496973684208</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="D20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="E20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="F20">
-        <v>0.9952496973684208</v>
+        <v>0.9945834764383562</v>
       </c>
       <c r="G20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="H20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="I20">
-        <v>0.9973873331578945</v>
+        <v>0.9970209117808218</v>
       </c>
       <c r="J20">
-        <v>1.003166876315789</v>
+        <v>1.003611022465753</v>
       </c>
       <c r="K20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="L20">
-        <v>1.001187588947368</v>
+        <v>1.001354144520548</v>
       </c>
       <c r="M20">
-        <v>0.9982186431578944</v>
+        <v>0.997968810479452</v>
       </c>
       <c r="N20">
-        <v>0.9982186431578944</v>
+        <v>0.997968810479452</v>
       </c>
       <c r="O20">
-        <v>0.9979415398245611</v>
+        <v>0.9976528442465753</v>
       </c>
       <c r="P20">
-        <v>0.9992082917543857</v>
+        <v>0.9990972551598173</v>
       </c>
       <c r="Q20">
-        <v>0.9992082917543857</v>
+        <v>0.9990972551598173</v>
       </c>
       <c r="R20">
-        <v>0.9997031160526313</v>
+        <v>0.9996614774999999</v>
       </c>
       <c r="S20">
-        <v>0.9997031160526313</v>
+        <v>0.9996614774999999</v>
       </c>
       <c r="T20">
-        <v>0.9998944456140348</v>
+        <v>0.9998796407077624</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.045701945667218</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="D21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="E21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="F21">
-        <v>1.045701945667218</v>
+        <v>1.023525342105263</v>
       </c>
       <c r="G21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="H21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="I21">
-        <v>1.025136069581616</v>
+        <v>1.012938931578947</v>
       </c>
       <c r="J21">
-        <v>0.969532040033978</v>
+        <v>0.984316445263158</v>
       </c>
       <c r="K21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="L21">
-        <v>0.988574515860675</v>
+        <v>0.9941186657894736</v>
       </c>
       <c r="M21">
-        <v>1.017138230763946</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="N21">
-        <v>1.017138230763946</v>
+        <v>1.008822003947368</v>
       </c>
       <c r="O21">
-        <v>1.019804177036503</v>
+        <v>1.010194313157895</v>
       </c>
       <c r="P21">
-        <v>1.007616992462856</v>
+        <v>1.00392089122807</v>
       </c>
       <c r="Q21">
-        <v>1.007616992462856</v>
+        <v>1.00392089122807</v>
       </c>
       <c r="R21">
-        <v>1.002856373312311</v>
+        <v>1.001470334868421</v>
       </c>
       <c r="S21">
-        <v>1.002856373312311</v>
+        <v>1.001470334868421</v>
       </c>
       <c r="T21">
-        <v>1.001015600477473</v>
+        <v>1.000522786052631</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.012181208237609</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="D22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="E22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="F22">
-        <v>1.012181208237609</v>
+        <v>0.9952496973684208</v>
       </c>
       <c r="G22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="H22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="I22">
-        <v>1.006699670278214</v>
+        <v>0.9973873331578945</v>
       </c>
       <c r="J22">
-        <v>0.9918791945001935</v>
+        <v>1.003166876315789</v>
       </c>
       <c r="K22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="L22">
-        <v>0.9969546944137678</v>
+        <v>1.001187588947368</v>
       </c>
       <c r="M22">
-        <v>1.004567951325689</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="N22">
-        <v>1.004567951325689</v>
+        <v>0.9982186431578944</v>
       </c>
       <c r="O22">
-        <v>1.005278524309864</v>
+        <v>0.9979415398245611</v>
       </c>
       <c r="P22">
-        <v>1.002030199021715</v>
+        <v>0.9992082917543857</v>
       </c>
       <c r="Q22">
-        <v>1.002030199021715</v>
+        <v>0.9992082917543857</v>
       </c>
       <c r="R22">
-        <v>1.000761322869728</v>
+        <v>0.9997031160526313</v>
       </c>
       <c r="S22">
-        <v>1.000761322869728</v>
+        <v>0.9997031160526313</v>
       </c>
       <c r="T22">
-        <v>1.000270692709553</v>
+        <v>0.9998944456140348</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9995196357321918</v>
+        <v>1.045701945667218</v>
       </c>
       <c r="D23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="E23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="F23">
-        <v>0.9995196357321918</v>
+        <v>1.045701945667218</v>
       </c>
       <c r="G23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="H23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="I23">
-        <v>0.9997357961980131</v>
+        <v>1.025136069581616</v>
       </c>
       <c r="J23">
-        <v>1.000320241021014</v>
+        <v>0.969532040033978</v>
       </c>
       <c r="K23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="L23">
-        <v>1.000120094216192</v>
+        <v>0.988574515860675</v>
       </c>
       <c r="M23">
-        <v>0.9998198649741917</v>
+        <v>1.017138230763946</v>
       </c>
       <c r="N23">
-        <v>0.9998198649741917</v>
+        <v>1.017138230763946</v>
       </c>
       <c r="O23">
-        <v>0.9997918420487988</v>
+        <v>1.019804177036503</v>
       </c>
       <c r="P23">
-        <v>0.9999199413881916</v>
+        <v>1.007616992462856</v>
       </c>
       <c r="Q23">
-        <v>0.9999199413881916</v>
+        <v>1.007616992462856</v>
       </c>
       <c r="R23">
-        <v>0.9999699795951916</v>
+        <v>1.002856373312311</v>
       </c>
       <c r="S23">
-        <v>0.9999699795951916</v>
+        <v>1.002856373312311</v>
       </c>
       <c r="T23">
-        <v>0.9999893259332989</v>
+        <v>1.001015600477473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9998696851522243</v>
+        <v>1.012181208237609</v>
       </c>
       <c r="D24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="E24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="F24">
-        <v>0.9998696851522243</v>
+        <v>1.012181208237609</v>
       </c>
       <c r="G24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="H24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="I24">
-        <v>0.9999283311509329</v>
+        <v>1.006699670278214</v>
       </c>
       <c r="J24">
-        <v>1.000086877963037</v>
+        <v>0.9918791945001935</v>
       </c>
       <c r="K24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="L24">
-        <v>1.000032580109521</v>
+        <v>0.9969546944137678</v>
       </c>
       <c r="M24">
-        <v>0.9999511326308728</v>
+        <v>1.004567951325689</v>
       </c>
       <c r="N24">
-        <v>0.9999511326308728</v>
+        <v>1.004567951325689</v>
       </c>
       <c r="O24">
-        <v>0.9999435321375595</v>
+        <v>1.005278524309864</v>
       </c>
       <c r="P24">
-        <v>0.9999782817904223</v>
+        <v>1.002030199021715</v>
       </c>
       <c r="Q24">
-        <v>0.9999782817904223</v>
+        <v>1.002030199021715</v>
       </c>
       <c r="R24">
-        <v>0.9999918563701971</v>
+        <v>1.000761322869728</v>
       </c>
       <c r="S24">
-        <v>0.9999918563701971</v>
+        <v>1.000761322869728</v>
       </c>
       <c r="T24">
-        <v>0.9999971057657929</v>
+        <v>1.000270692709553</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9642704642877111</v>
+        <v>0.9995196357321918</v>
       </c>
       <c r="D25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="E25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="F25">
-        <v>0.9642704642877111</v>
+        <v>0.9995196357321918</v>
       </c>
       <c r="G25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="H25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="I25">
-        <v>0.9803487537850353</v>
+        <v>0.9997357961980131</v>
       </c>
       <c r="J25">
-        <v>1.023819690784401</v>
+        <v>1.000320241021014</v>
       </c>
       <c r="K25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="L25">
-        <v>1.008932394824936</v>
+        <v>1.000120094216192</v>
       </c>
       <c r="M25">
-        <v>0.9866014295563237</v>
+        <v>0.9998198649741917</v>
       </c>
       <c r="N25">
-        <v>0.9866014295563237</v>
+        <v>0.9998198649741917</v>
       </c>
       <c r="O25">
-        <v>0.9845172042992276</v>
+        <v>0.9997918420487988</v>
       </c>
       <c r="P25">
-        <v>0.9940450846458612</v>
+        <v>0.9999199413881916</v>
       </c>
       <c r="Q25">
-        <v>0.9940450846458612</v>
+        <v>0.9999199413881916</v>
       </c>
       <c r="R25">
-        <v>0.9977669121906299</v>
+        <v>0.9999699795951916</v>
       </c>
       <c r="S25">
-        <v>0.9977669121906299</v>
+        <v>0.9999699795951916</v>
       </c>
       <c r="T25">
-        <v>0.9992060155553261</v>
+        <v>0.9999893259332989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9904061168911402</v>
+        <v>0.9998696851522243</v>
       </c>
       <c r="D26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="E26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="F26">
-        <v>0.9904061168911402</v>
+        <v>0.9998696851522243</v>
       </c>
       <c r="G26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="H26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="I26">
-        <v>0.9947233633050211</v>
+        <v>0.9999283311509329</v>
       </c>
       <c r="J26">
-        <v>1.006395918014905</v>
+        <v>1.000086877963037</v>
       </c>
       <c r="K26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="L26">
-        <v>1.002398478429737</v>
+        <v>1.000032580109521</v>
       </c>
       <c r="M26">
-        <v>0.9964022976604388</v>
+        <v>0.9999511326308728</v>
       </c>
       <c r="N26">
-        <v>0.9964022976604388</v>
+        <v>0.9999511326308728</v>
       </c>
       <c r="O26">
-        <v>0.9958426528752996</v>
+        <v>0.9999435321375595</v>
       </c>
       <c r="P26">
-        <v>0.9984010245835382</v>
+        <v>0.9999782817904223</v>
       </c>
       <c r="Q26">
-        <v>0.9984010245835382</v>
+        <v>0.9999782817904223</v>
       </c>
       <c r="R26">
-        <v>0.9994003880450879</v>
+        <v>0.9999918563701971</v>
       </c>
       <c r="S26">
-        <v>0.9994003880450879</v>
+        <v>0.9999918563701971</v>
       </c>
       <c r="T26">
-        <v>0.9997868055833797</v>
+        <v>0.9999971057657929</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9989753889113621</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="D27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="E27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="F27">
-        <v>0.9989753889113621</v>
+        <v>0.9642704642877111</v>
       </c>
       <c r="G27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="H27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="I27">
-        <v>0.9994364608848769</v>
+        <v>0.9803487537850353</v>
       </c>
       <c r="J27">
-        <v>1.000683081276603</v>
+        <v>1.023819690784401</v>
       </c>
       <c r="K27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="L27">
-        <v>1.000256170142117</v>
+        <v>1.008932394824936</v>
       </c>
       <c r="M27">
-        <v>0.9996157795267397</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="N27">
-        <v>0.9996157795267397</v>
+        <v>0.9866014295563237</v>
       </c>
       <c r="O27">
-        <v>0.9995560066461188</v>
+        <v>0.9845172042992276</v>
       </c>
       <c r="P27">
-        <v>0.9998292430651988</v>
+        <v>0.9940450846458612</v>
       </c>
       <c r="Q27">
-        <v>0.9998292430651988</v>
+        <v>0.9940450846458612</v>
       </c>
       <c r="R27">
-        <v>0.9999359748344285</v>
+        <v>0.9977669121906299</v>
       </c>
       <c r="S27">
-        <v>0.9999359748344285</v>
+        <v>0.9977669121906299</v>
       </c>
       <c r="T27">
-        <v>0.9999772402498657</v>
+        <v>0.9992060155553261</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001033708190077</v>
+        <v>0.9904061168911402</v>
       </c>
       <c r="D28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="E28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="F28">
-        <v>1.001033708190077</v>
+        <v>0.9904061168911402</v>
       </c>
       <c r="G28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="H28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="I28">
-        <v>1.000568549101501</v>
+        <v>0.9947233633050211</v>
       </c>
       <c r="J28">
-        <v>0.9993108581496504</v>
+        <v>1.006395918014905</v>
       </c>
       <c r="K28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="L28">
-        <v>0.9997415824313458</v>
+        <v>1.002398478429737</v>
       </c>
       <c r="M28">
-        <v>1.000387645310711</v>
+        <v>0.9964022976604388</v>
       </c>
       <c r="N28">
-        <v>1.000387645310711</v>
+        <v>0.9964022976604388</v>
       </c>
       <c r="O28">
-        <v>1.000447946574308</v>
+        <v>0.9958426528752996</v>
       </c>
       <c r="P28">
-        <v>1.00017229101759</v>
+        <v>0.9984010245835382</v>
       </c>
       <c r="Q28">
-        <v>1.00017229101759</v>
+        <v>0.9984010245835382</v>
       </c>
       <c r="R28">
-        <v>1.000064613871029</v>
+        <v>0.9994003880450879</v>
       </c>
       <c r="S28">
-        <v>1.000064613871029</v>
+        <v>0.9994003880450879</v>
       </c>
       <c r="T28">
-        <v>1.000022977122544</v>
+        <v>0.9997868055833797</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="D29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="E29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="F29">
+        <v>0.9989753889113621</v>
+      </c>
+      <c r="G29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="H29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="I29">
+        <v>0.9994364608848769</v>
+      </c>
+      <c r="J29">
+        <v>1.000683081276603</v>
+      </c>
+      <c r="K29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="L29">
+        <v>1.000256170142117</v>
+      </c>
+      <c r="M29">
+        <v>0.9996157795267397</v>
+      </c>
+      <c r="N29">
+        <v>0.9996157795267397</v>
+      </c>
+      <c r="O29">
+        <v>0.9995560066461188</v>
+      </c>
+      <c r="P29">
+        <v>0.9998292430651988</v>
+      </c>
+      <c r="Q29">
+        <v>0.9998292430651988</v>
+      </c>
+      <c r="R29">
+        <v>0.9999359748344285</v>
+      </c>
+      <c r="S29">
+        <v>0.9999359748344285</v>
+      </c>
+      <c r="T29">
+        <v>0.9999772402498657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="D30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="E30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="F30">
+        <v>1.001033708190077</v>
+      </c>
+      <c r="G30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="H30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="I30">
+        <v>1.000568549101501</v>
+      </c>
+      <c r="J30">
+        <v>0.9993108581496504</v>
+      </c>
+      <c r="K30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="L30">
+        <v>0.9997415824313458</v>
+      </c>
+      <c r="M30">
+        <v>1.000387645310711</v>
+      </c>
+      <c r="N30">
+        <v>1.000387645310711</v>
+      </c>
+      <c r="O30">
+        <v>1.000447946574308</v>
+      </c>
+      <c r="P30">
+        <v>1.00017229101759</v>
+      </c>
+      <c r="Q30">
+        <v>1.00017229101759</v>
+      </c>
+      <c r="R30">
+        <v>1.000064613871029</v>
+      </c>
+      <c r="S30">
+        <v>1.000064613871029</v>
+      </c>
+      <c r="T30">
+        <v>1.000022977122544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.004495382678261</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.998876172065593</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.998876172065593</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.004495382678261</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.998876172065593</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.998876172065593</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.002472472718944</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9970030735112908</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.998876172065593</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.998876172065593</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.001685777371927</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.001685777371927</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.001948009154266</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000749242269816</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000749242269816</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00028097471876</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00028097471876</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000099907517546</v>
       </c>
     </row>
